--- a/Marqeta Testing Document.xlsx
+++ b/Marqeta Testing Document.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="114">
   <si>
     <t>Test Suite 1</t>
   </si>
@@ -298,9 +298,6 @@
     <t>Invalid</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Invalid User Token / Valid Card Product Token</t>
   </si>
   <si>
@@ -311,6 +308,9 @@
   </si>
   <si>
     <t>Basic Fields</t>
+  </si>
+  <si>
+    <t>User Fund</t>
   </si>
   <si>
     <t>Amount (In Dollars)</t>
@@ -340,9 +340,6 @@
     <t>ABC10</t>
   </si>
   <si>
-    <t>Invalid Merchant ID</t>
-  </si>
-  <si>
     <t>Invalid Card Token</t>
   </si>
   <si>
@@ -365,13 +362,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
@@ -388,18 +384,12 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-    </font>
-    <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <b/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -478,66 +468,48 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -546,72 +518,71 @@
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -912,239 +883,239 @@
       <c r="E6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
     </row>
     <row r="7">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>1.0</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>2.0</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>3.0</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>4.0</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="13">
+      <c r="A11" s="12">
         <v>5.0</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="13">
+      <c r="A12" s="12">
         <v>6.0</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="13">
+      <c r="A13" s="12">
         <v>7.0</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="13">
+      <c r="A14" s="12">
         <v>8.0</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1208,239 +1179,239 @@
       <c r="E19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
     </row>
     <row r="20">
-      <c r="A20" s="13">
+      <c r="A20" s="12">
         <v>1.0</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="H20" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="13">
+      <c r="A21" s="12">
         <v>2.0</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="13">
+      <c r="A22" s="12">
         <v>3.0</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="13">
+      <c r="A23" s="12">
         <v>4.0</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="17" t="s">
+      <c r="H23" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="13">
+      <c r="A24" s="12">
         <v>5.0</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="17" t="s">
+      <c r="H24" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="13">
+      <c r="A25" s="12">
         <v>6.0</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="17" t="s">
+      <c r="H25" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="13">
+      <c r="A26" s="12">
         <v>7.0</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="H26" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="13">
+      <c r="A27" s="12">
         <v>8.0</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="17" t="s">
+      <c r="H27" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1504,239 +1475,239 @@
       <c r="E32" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="12"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
     </row>
     <row r="33">
-      <c r="A33" s="13">
+      <c r="A33" s="12">
         <v>1.0</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="F33" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G33" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="17" t="s">
+      <c r="H33" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="13">
+      <c r="A34" s="12">
         <v>2.0</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F34" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="G34" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H34" s="17" t="s">
+      <c r="H34" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="13">
+      <c r="A35" s="12">
         <v>3.0</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="17" t="s">
+      <c r="H35" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="13">
+      <c r="A36" s="12">
         <v>4.0</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="F36" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="17" t="s">
+      <c r="H36" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="13">
+      <c r="A37" s="12">
         <v>5.0</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="F37" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G37" s="18" t="s">
+      <c r="G37" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H37" s="17" t="s">
+      <c r="H37" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="13">
+      <c r="A38" s="12">
         <v>6.0</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="G38" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="17" t="s">
+      <c r="H38" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="13">
+      <c r="A39" s="12">
         <v>7.0</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="18" t="s">
+      <c r="G39" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H39" s="17" t="s">
+      <c r="H39" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="13">
+      <c r="A40" s="12">
         <v>8.0</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G40" s="18" t="s">
+      <c r="G40" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H40" s="17" t="s">
+      <c r="H40" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5664,171 +5635,171 @@
       <c r="C6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
     </row>
     <row r="7">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>1.0</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>2.0</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>3.0</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>4.0</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="13">
+      <c r="A11" s="12">
         <v>5.0</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="22">
+      <c r="A12" s="12">
         <v>6.0</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="22">
+      <c r="A13" s="12">
         <v>7.0</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="18" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5886,151 +5857,151 @@
       <c r="C18" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
     </row>
     <row r="19">
-      <c r="A19" s="13">
+      <c r="A19" s="12">
         <v>1.0</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="13">
+      <c r="A20" s="12">
         <v>2.0</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="13">
+      <c r="A21" s="12">
         <v>3.0</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="13">
+      <c r="A22" s="12">
         <v>4.0</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="13">
+      <c r="A23" s="12">
         <v>5.0</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="22">
+      <c r="A24" s="12">
         <v>6.0</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6043,10 +6014,10 @@
       <c r="E26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C27" s="6"/>
@@ -6088,226 +6059,226 @@
       <c r="C29" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
     </row>
     <row r="30">
-      <c r="A30" s="13">
+      <c r="A30" s="12">
         <v>1.0</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="13">
+      <c r="A31" s="12">
         <v>2.0</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="13">
+      <c r="A32" s="12">
         <v>3.0</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E32" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="13">
+      <c r="A33" s="12">
         <v>4.0</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="28" t="s">
+      <c r="E33" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="F33" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="13">
+      <c r="A34" s="12">
         <v>5.0</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E34" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="32" t="s">
+      <c r="F34" s="24" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="22">
+      <c r="A35" s="12">
         <v>6.0</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="34" t="s">
+      <c r="E35" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="F35" s="24" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="22">
+      <c r="A36" s="12">
         <v>7.0</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="36" t="s">
+      <c r="E36" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="37" t="s">
+      <c r="F36" s="29" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="22">
+      <c r="A37" s="12">
         <v>8.0</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="38" t="s">
+      <c r="D37" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="39" t="s">
+      <c r="E37" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="37" t="s">
+      <c r="F37" s="29" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="22">
+      <c r="A38" s="12">
         <v>9.0</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="40" t="s">
+      <c r="D38" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="41" t="s">
+      <c r="E38" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="F38" s="37" t="s">
+      <c r="F38" s="29" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3"/>
-      <c r="E39" s="42"/>
+      <c r="E39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" s="3"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -6352,91 +6323,91 @@
       <c r="C43" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F43" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
-      <c r="S43" s="12"/>
-      <c r="T43" s="12"/>
-      <c r="U43" s="12"/>
-      <c r="V43" s="12"/>
-      <c r="W43" s="12"/>
-      <c r="X43" s="12"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
     </row>
     <row r="44">
-      <c r="A44" s="13">
+      <c r="A44" s="12">
         <v>1.0</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="13" t="b">
+      <c r="C44" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="F44" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="13">
+      <c r="A45" s="12">
         <v>2.0</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="13" t="b">
+      <c r="C45" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="21" t="s">
+      <c r="F45" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="13">
+      <c r="A46" s="12">
         <v>3.0</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D46" s="40" t="s">
+      <c r="D46" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E46" s="41" t="s">
+      <c r="E46" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="F46" s="21" t="s">
+      <c r="F46" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10307,13 +10278,14 @@
     <col customWidth="1" min="3" max="3" width="18.86"/>
     <col customWidth="1" min="4" max="4" width="21.0"/>
     <col customWidth="1" min="5" max="5" width="20.57"/>
+    <col customWidth="1" min="6" max="6" width="21.0"/>
   </cols>
   <sheetData>
     <row r="3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="5" t="s">
         <v>88</v>
       </c>
       <c r="C3" s="6"/>
@@ -10334,10 +10306,10 @@
       <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="10" t="s">
         <v>90</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -10349,91 +10321,99 @@
       <c r="G5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="12"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>1.0</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="B7" s="22" t="s">
+      <c r="C7" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C8" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D8" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="23" t="s">
+      <c r="D9" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="16" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="G9" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -10452,386 +10432,408 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="18.43"/>
     <col customWidth="1" min="2" max="2" width="41.43"/>
-    <col customWidth="1" min="3" max="3" width="24.29"/>
-    <col customWidth="1" min="4" max="4" width="19.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="19.71"/>
-    <col customWidth="1" min="7" max="7" width="19.14"/>
+    <col customWidth="1" min="3" max="4" width="24.29"/>
+    <col customWidth="1" min="5" max="5" width="19.14"/>
+    <col customWidth="1" min="6" max="6" width="18.71"/>
+    <col customWidth="1" min="7" max="7" width="19.71"/>
+    <col customWidth="1" min="8" max="8" width="19.14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3"/>
-      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="3"/>
-      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="3"/>
-      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>98</v>
+      <c r="B4" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
     </row>
     <row r="6">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="E6" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="F6" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="G6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="H6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="I6" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
     </row>
     <row r="7">
-      <c r="A7" s="22">
+      <c r="A7" s="12">
         <v>1.0</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="38">
+        <v>1000.0</v>
+      </c>
+      <c r="D7" s="12">
         <v>10.0</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="E7" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="F7" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="G7" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H7" s="14"/>
+      <c r="H7" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="22">
+      <c r="A8" s="12">
         <v>2.0</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="16">
+        <v>1000.0</v>
+      </c>
+      <c r="D8" s="12">
         <v>0.01</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="E8" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="F8" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="G8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" s="14"/>
+      <c r="H8" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="22">
+      <c r="A9" s="12">
         <v>3.0</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="16">
+        <v>1000.0</v>
+      </c>
+      <c r="D9" s="12">
         <v>1.0E-7</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="E9" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="F9" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="G9" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H9" s="14"/>
+      <c r="H9" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="22">
+      <c r="A10" s="12">
         <v>4.0</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="39">
+        <v>1.0E12</v>
+      </c>
+      <c r="D10" s="40">
         <v>9.99999999999E11</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="E10" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="F10" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="G10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="16"/>
+      <c r="H10" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="22">
+      <c r="A11" s="12">
         <v>5.0</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="16">
+        <v>1000.0</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="E11" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="F11" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="G11" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" s="14"/>
+      <c r="H11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="22">
+      <c r="A12" s="38">
         <v>6.0</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="16">
+        <v>1000.0</v>
+      </c>
+      <c r="D12" s="12">
         <v>10.0</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="E12" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" s="18" t="s">
+      <c r="G12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" s="14"/>
+      <c r="H12" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="22">
-        <v>7.0</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="22">
-        <v>10.0</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H13" s="14"/>
+      <c r="A13" s="3"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="3"/>
-      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="49"/>
-      <c r="E15" s="42"/>
+      <c r="A15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
     </row>
     <row r="16">
-      <c r="A16" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="26" t="s">
+      <c r="A16" s="3"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="3"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>8</v>
+      <c r="C18" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="B19" s="22" t="s">
+      <c r="A19" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="B19" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="16"/>
+      <c r="D19" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="22">
-        <v>2.0</v>
-      </c>
-      <c r="B20" s="22" t="s">
+      <c r="A20" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="B20" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="16"/>
+      <c r="C20" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="22">
-        <v>3.0</v>
-      </c>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="B21" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="16"/>
+      <c r="D21" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="22">
-        <v>4.0</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" s="16"/>
+      <c r="A22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" s="3"/>
@@ -10841,3778 +10843,3775 @@
     </row>
     <row r="25">
       <c r="A25" s="3"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" s="3"/>
-      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="3"/>
-      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="3"/>
-      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" s="3"/>
-      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" s="3"/>
-      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" s="3"/>
-      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" s="3"/>
-      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" s="3"/>
-      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" s="3"/>
-      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="3"/>
-      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" s="3"/>
-      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" s="3"/>
-      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="3"/>
-      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" s="3"/>
-      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" s="3"/>
-      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" s="3"/>
-      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" s="3"/>
-      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" s="3"/>
-      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" s="3"/>
-      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" s="3"/>
-      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" s="3"/>
-      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" s="3"/>
-      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" s="3"/>
-      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" s="3"/>
-      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" s="3"/>
-      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" s="3"/>
-      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" s="3"/>
-      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" s="3"/>
-      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" s="3"/>
-      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" s="3"/>
-      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" s="3"/>
-      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" s="3"/>
-      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" s="3"/>
-      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" s="3"/>
-      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" s="3"/>
-      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" s="3"/>
-      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" s="3"/>
-      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" s="3"/>
-      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" s="3"/>
-      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" s="3"/>
-      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" s="3"/>
-      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" s="3"/>
-      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" s="3"/>
-      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" s="3"/>
-      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" s="3"/>
-      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" s="3"/>
-      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" s="3"/>
-      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" s="3"/>
-      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" s="3"/>
-      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
     </row>
     <row r="75">
       <c r="A75" s="3"/>
-      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
     </row>
     <row r="76">
       <c r="A76" s="3"/>
-      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
     </row>
     <row r="77">
       <c r="A77" s="3"/>
-      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
     </row>
     <row r="78">
       <c r="A78" s="3"/>
-      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
     </row>
     <row r="79">
       <c r="A79" s="3"/>
-      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
     </row>
     <row r="80">
       <c r="A80" s="3"/>
-      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
     </row>
     <row r="81">
       <c r="A81" s="3"/>
-      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
     </row>
     <row r="82">
       <c r="A82" s="3"/>
-      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
     </row>
     <row r="83">
       <c r="A83" s="3"/>
-      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
     </row>
     <row r="84">
       <c r="A84" s="3"/>
-      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
     </row>
     <row r="85">
       <c r="A85" s="3"/>
-      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
     </row>
     <row r="86">
       <c r="A86" s="3"/>
-      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
     </row>
     <row r="87">
       <c r="A87" s="3"/>
-      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
     </row>
     <row r="88">
       <c r="A88" s="3"/>
-      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
     </row>
     <row r="89">
       <c r="A89" s="3"/>
-      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
     </row>
     <row r="90">
       <c r="A90" s="3"/>
-      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
     </row>
     <row r="91">
       <c r="A91" s="3"/>
-      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
     </row>
     <row r="92">
       <c r="A92" s="3"/>
-      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
     </row>
     <row r="93">
       <c r="A93" s="3"/>
-      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
     </row>
     <row r="94">
       <c r="A94" s="3"/>
-      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
     </row>
     <row r="95">
       <c r="A95" s="3"/>
-      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
     </row>
     <row r="96">
       <c r="A96" s="3"/>
-      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
     </row>
     <row r="97">
       <c r="A97" s="3"/>
-      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
     </row>
     <row r="98">
       <c r="A98" s="3"/>
-      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
     </row>
     <row r="99">
       <c r="A99" s="3"/>
-      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
     </row>
     <row r="100">
       <c r="A100" s="3"/>
-      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
     </row>
     <row r="101">
       <c r="A101" s="3"/>
-      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
     </row>
     <row r="102">
       <c r="A102" s="3"/>
-      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
     </row>
     <row r="103">
       <c r="A103" s="3"/>
-      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
     </row>
     <row r="104">
       <c r="A104" s="3"/>
-      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
     </row>
     <row r="105">
       <c r="A105" s="3"/>
-      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
     </row>
     <row r="106">
       <c r="A106" s="3"/>
-      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
     </row>
     <row r="107">
       <c r="A107" s="3"/>
-      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
     </row>
     <row r="108">
       <c r="A108" s="3"/>
-      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
     </row>
     <row r="109">
       <c r="A109" s="3"/>
-      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
     </row>
     <row r="110">
       <c r="A110" s="3"/>
-      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
     </row>
     <row r="111">
       <c r="A111" s="3"/>
-      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
     </row>
     <row r="112">
       <c r="A112" s="3"/>
-      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
     </row>
     <row r="113">
       <c r="A113" s="3"/>
-      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
     </row>
     <row r="114">
       <c r="A114" s="3"/>
-      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
     </row>
     <row r="115">
       <c r="A115" s="3"/>
-      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
     </row>
     <row r="116">
       <c r="A116" s="3"/>
-      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
     </row>
     <row r="117">
       <c r="A117" s="3"/>
-      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
     </row>
     <row r="118">
       <c r="A118" s="3"/>
-      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
     </row>
     <row r="119">
       <c r="A119" s="3"/>
-      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
     </row>
     <row r="120">
       <c r="A120" s="3"/>
-      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
     </row>
     <row r="121">
       <c r="A121" s="3"/>
-      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
     </row>
     <row r="122">
       <c r="A122" s="3"/>
-      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
     </row>
     <row r="123">
       <c r="A123" s="3"/>
-      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
     </row>
     <row r="124">
       <c r="A124" s="3"/>
-      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
     </row>
     <row r="125">
       <c r="A125" s="3"/>
-      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
     </row>
     <row r="126">
       <c r="A126" s="3"/>
-      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
     </row>
     <row r="127">
       <c r="A127" s="3"/>
-      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
     </row>
     <row r="128">
       <c r="A128" s="3"/>
-      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
     </row>
     <row r="129">
       <c r="A129" s="3"/>
-      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
     </row>
     <row r="130">
       <c r="A130" s="3"/>
-      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
     </row>
     <row r="131">
       <c r="A131" s="3"/>
-      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
     </row>
     <row r="132">
       <c r="A132" s="3"/>
-      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
     </row>
     <row r="133">
       <c r="A133" s="3"/>
-      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
     </row>
     <row r="134">
       <c r="A134" s="3"/>
-      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
     </row>
     <row r="135">
       <c r="A135" s="3"/>
-      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
     </row>
     <row r="136">
       <c r="A136" s="3"/>
-      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
     </row>
     <row r="137">
       <c r="A137" s="3"/>
-      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
     </row>
     <row r="138">
       <c r="A138" s="3"/>
-      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
     </row>
     <row r="139">
       <c r="A139" s="3"/>
-      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
     </row>
     <row r="140">
       <c r="A140" s="3"/>
-      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
     </row>
     <row r="141">
       <c r="A141" s="3"/>
-      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
     </row>
     <row r="142">
       <c r="A142" s="3"/>
-      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
     </row>
     <row r="143">
       <c r="A143" s="3"/>
-      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
     </row>
     <row r="144">
       <c r="A144" s="3"/>
-      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
     </row>
     <row r="145">
       <c r="A145" s="3"/>
-      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
     </row>
     <row r="146">
       <c r="A146" s="3"/>
-      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
     </row>
     <row r="147">
       <c r="A147" s="3"/>
-      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
     </row>
     <row r="148">
       <c r="A148" s="3"/>
-      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
     </row>
     <row r="149">
       <c r="A149" s="3"/>
-      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
     </row>
     <row r="150">
       <c r="A150" s="3"/>
-      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
     </row>
     <row r="151">
       <c r="A151" s="3"/>
-      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
     </row>
     <row r="152">
       <c r="A152" s="3"/>
-      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
     </row>
     <row r="153">
       <c r="A153" s="3"/>
-      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
     </row>
     <row r="154">
       <c r="A154" s="3"/>
-      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
     </row>
     <row r="155">
       <c r="A155" s="3"/>
-      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
     </row>
     <row r="156">
       <c r="A156" s="3"/>
-      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
     </row>
     <row r="157">
       <c r="A157" s="3"/>
-      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
     </row>
     <row r="158">
       <c r="A158" s="3"/>
-      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
     </row>
     <row r="159">
       <c r="A159" s="3"/>
-      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
     </row>
     <row r="160">
       <c r="A160" s="3"/>
-      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
     </row>
     <row r="161">
       <c r="A161" s="3"/>
-      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
     </row>
     <row r="162">
       <c r="A162" s="3"/>
-      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
     </row>
     <row r="163">
       <c r="A163" s="3"/>
-      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
     </row>
     <row r="164">
       <c r="A164" s="3"/>
-      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
     </row>
     <row r="165">
       <c r="A165" s="3"/>
-      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
     </row>
     <row r="166">
       <c r="A166" s="3"/>
-      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
     </row>
     <row r="167">
       <c r="A167" s="3"/>
-      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
     </row>
     <row r="168">
       <c r="A168" s="3"/>
-      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
     </row>
     <row r="169">
       <c r="A169" s="3"/>
-      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
     </row>
     <row r="170">
       <c r="A170" s="3"/>
-      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
     </row>
     <row r="171">
       <c r="A171" s="3"/>
-      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
     </row>
     <row r="172">
       <c r="A172" s="3"/>
-      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
     </row>
     <row r="173">
       <c r="A173" s="3"/>
-      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
     </row>
     <row r="174">
       <c r="A174" s="3"/>
-      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
     </row>
     <row r="175">
       <c r="A175" s="3"/>
-      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
     </row>
     <row r="176">
       <c r="A176" s="3"/>
-      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
     </row>
     <row r="177">
       <c r="A177" s="3"/>
-      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
     </row>
     <row r="178">
       <c r="A178" s="3"/>
-      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
     </row>
     <row r="179">
       <c r="A179" s="3"/>
-      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
     </row>
     <row r="180">
       <c r="A180" s="3"/>
-      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
     </row>
     <row r="181">
       <c r="A181" s="3"/>
-      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
     </row>
     <row r="182">
       <c r="A182" s="3"/>
-      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
     </row>
     <row r="183">
       <c r="A183" s="3"/>
-      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
     </row>
     <row r="184">
       <c r="A184" s="3"/>
-      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
     </row>
     <row r="185">
       <c r="A185" s="3"/>
-      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
     </row>
     <row r="186">
       <c r="A186" s="3"/>
-      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
     </row>
     <row r="187">
       <c r="A187" s="3"/>
-      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
     </row>
     <row r="188">
       <c r="A188" s="3"/>
-      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
     </row>
     <row r="189">
       <c r="A189" s="3"/>
-      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
     </row>
     <row r="190">
       <c r="A190" s="3"/>
-      <c r="E190" s="2"/>
+      <c r="F190" s="2"/>
     </row>
     <row r="191">
       <c r="A191" s="3"/>
-      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
     </row>
     <row r="192">
       <c r="A192" s="3"/>
-      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
     </row>
     <row r="193">
       <c r="A193" s="3"/>
-      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
     </row>
     <row r="194">
       <c r="A194" s="3"/>
-      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
     </row>
     <row r="195">
       <c r="A195" s="3"/>
-      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
     </row>
     <row r="196">
       <c r="A196" s="3"/>
-      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
     </row>
     <row r="197">
       <c r="A197" s="3"/>
-      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
     </row>
     <row r="198">
       <c r="A198" s="3"/>
-      <c r="E198" s="2"/>
+      <c r="F198" s="2"/>
     </row>
     <row r="199">
       <c r="A199" s="3"/>
-      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
     </row>
     <row r="200">
       <c r="A200" s="3"/>
-      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
     </row>
     <row r="201">
       <c r="A201" s="3"/>
-      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
     </row>
     <row r="202">
       <c r="A202" s="3"/>
-      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
     </row>
     <row r="203">
       <c r="A203" s="3"/>
-      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
     </row>
     <row r="204">
       <c r="A204" s="3"/>
-      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
     </row>
     <row r="205">
       <c r="A205" s="3"/>
-      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
     </row>
     <row r="206">
       <c r="A206" s="3"/>
-      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
     </row>
     <row r="207">
       <c r="A207" s="3"/>
-      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
     </row>
     <row r="208">
       <c r="A208" s="3"/>
-      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
     </row>
     <row r="209">
       <c r="A209" s="3"/>
-      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
     </row>
     <row r="210">
       <c r="A210" s="3"/>
-      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
     </row>
     <row r="211">
       <c r="A211" s="3"/>
-      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
     </row>
     <row r="212">
       <c r="A212" s="3"/>
-      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
     </row>
     <row r="213">
       <c r="A213" s="3"/>
-      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
     </row>
     <row r="214">
       <c r="A214" s="3"/>
-      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
     </row>
     <row r="215">
       <c r="A215" s="3"/>
-      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
     </row>
     <row r="216">
       <c r="A216" s="3"/>
-      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
     </row>
     <row r="217">
       <c r="A217" s="3"/>
-      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
     </row>
     <row r="218">
       <c r="A218" s="3"/>
-      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
     </row>
     <row r="219">
       <c r="A219" s="3"/>
-      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
     </row>
     <row r="220">
       <c r="A220" s="3"/>
-      <c r="E220" s="2"/>
+      <c r="F220" s="2"/>
     </row>
     <row r="221">
       <c r="A221" s="3"/>
-      <c r="E221" s="2"/>
+      <c r="F221" s="2"/>
     </row>
     <row r="222">
       <c r="A222" s="3"/>
-      <c r="E222" s="2"/>
+      <c r="F222" s="2"/>
     </row>
     <row r="223">
       <c r="A223" s="3"/>
-      <c r="E223" s="2"/>
+      <c r="F223" s="2"/>
     </row>
     <row r="224">
       <c r="A224" s="3"/>
-      <c r="E224" s="2"/>
+      <c r="F224" s="2"/>
     </row>
     <row r="225">
       <c r="A225" s="3"/>
-      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
     </row>
     <row r="226">
       <c r="A226" s="3"/>
-      <c r="E226" s="2"/>
+      <c r="F226" s="2"/>
     </row>
     <row r="227">
       <c r="A227" s="3"/>
-      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
     </row>
     <row r="228">
       <c r="A228" s="3"/>
-      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
     </row>
     <row r="229">
       <c r="A229" s="3"/>
-      <c r="E229" s="2"/>
+      <c r="F229" s="2"/>
     </row>
     <row r="230">
       <c r="A230" s="3"/>
-      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
     </row>
     <row r="231">
       <c r="A231" s="3"/>
-      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
     </row>
     <row r="232">
       <c r="A232" s="3"/>
-      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
     </row>
     <row r="233">
       <c r="A233" s="3"/>
-      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
     </row>
     <row r="234">
       <c r="A234" s="3"/>
-      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
     </row>
     <row r="235">
       <c r="A235" s="3"/>
-      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
     </row>
     <row r="236">
       <c r="A236" s="3"/>
-      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
     </row>
     <row r="237">
       <c r="A237" s="3"/>
-      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
     </row>
     <row r="238">
       <c r="A238" s="3"/>
-      <c r="E238" s="2"/>
+      <c r="F238" s="2"/>
     </row>
     <row r="239">
       <c r="A239" s="3"/>
-      <c r="E239" s="2"/>
+      <c r="F239" s="2"/>
     </row>
     <row r="240">
       <c r="A240" s="3"/>
-      <c r="E240" s="2"/>
+      <c r="F240" s="2"/>
     </row>
     <row r="241">
       <c r="A241" s="3"/>
-      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
     </row>
     <row r="242">
       <c r="A242" s="3"/>
-      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
     </row>
     <row r="243">
       <c r="A243" s="3"/>
-      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
     </row>
     <row r="244">
       <c r="A244" s="3"/>
-      <c r="E244" s="2"/>
+      <c r="F244" s="2"/>
     </row>
     <row r="245">
       <c r="A245" s="3"/>
-      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
     </row>
     <row r="246">
       <c r="A246" s="3"/>
-      <c r="E246" s="2"/>
+      <c r="F246" s="2"/>
     </row>
     <row r="247">
       <c r="A247" s="3"/>
-      <c r="E247" s="2"/>
+      <c r="F247" s="2"/>
     </row>
     <row r="248">
       <c r="A248" s="3"/>
-      <c r="E248" s="2"/>
+      <c r="F248" s="2"/>
     </row>
     <row r="249">
       <c r="A249" s="3"/>
-      <c r="E249" s="2"/>
+      <c r="F249" s="2"/>
     </row>
     <row r="250">
       <c r="A250" s="3"/>
-      <c r="E250" s="2"/>
+      <c r="F250" s="2"/>
     </row>
     <row r="251">
       <c r="A251" s="3"/>
-      <c r="E251" s="2"/>
+      <c r="F251" s="2"/>
     </row>
     <row r="252">
       <c r="A252" s="3"/>
-      <c r="E252" s="2"/>
+      <c r="F252" s="2"/>
     </row>
     <row r="253">
       <c r="A253" s="3"/>
-      <c r="E253" s="2"/>
+      <c r="F253" s="2"/>
     </row>
     <row r="254">
       <c r="A254" s="3"/>
-      <c r="E254" s="2"/>
+      <c r="F254" s="2"/>
     </row>
     <row r="255">
       <c r="A255" s="3"/>
-      <c r="E255" s="2"/>
+      <c r="F255" s="2"/>
     </row>
     <row r="256">
       <c r="A256" s="3"/>
-      <c r="E256" s="2"/>
+      <c r="F256" s="2"/>
     </row>
     <row r="257">
       <c r="A257" s="3"/>
-      <c r="E257" s="2"/>
+      <c r="F257" s="2"/>
     </row>
     <row r="258">
       <c r="A258" s="3"/>
-      <c r="E258" s="2"/>
+      <c r="F258" s="2"/>
     </row>
     <row r="259">
       <c r="A259" s="3"/>
-      <c r="E259" s="2"/>
+      <c r="F259" s="2"/>
     </row>
     <row r="260">
       <c r="A260" s="3"/>
-      <c r="E260" s="2"/>
+      <c r="F260" s="2"/>
     </row>
     <row r="261">
       <c r="A261" s="3"/>
-      <c r="E261" s="2"/>
+      <c r="F261" s="2"/>
     </row>
     <row r="262">
       <c r="A262" s="3"/>
-      <c r="E262" s="2"/>
+      <c r="F262" s="2"/>
     </row>
     <row r="263">
       <c r="A263" s="3"/>
-      <c r="E263" s="2"/>
+      <c r="F263" s="2"/>
     </row>
     <row r="264">
       <c r="A264" s="3"/>
-      <c r="E264" s="2"/>
+      <c r="F264" s="2"/>
     </row>
     <row r="265">
       <c r="A265" s="3"/>
-      <c r="E265" s="2"/>
+      <c r="F265" s="2"/>
     </row>
     <row r="266">
       <c r="A266" s="3"/>
-      <c r="E266" s="2"/>
+      <c r="F266" s="2"/>
     </row>
     <row r="267">
       <c r="A267" s="3"/>
-      <c r="E267" s="2"/>
+      <c r="F267" s="2"/>
     </row>
     <row r="268">
       <c r="A268" s="3"/>
-      <c r="E268" s="2"/>
+      <c r="F268" s="2"/>
     </row>
     <row r="269">
       <c r="A269" s="3"/>
-      <c r="E269" s="2"/>
+      <c r="F269" s="2"/>
     </row>
     <row r="270">
       <c r="A270" s="3"/>
-      <c r="E270" s="2"/>
+      <c r="F270" s="2"/>
     </row>
     <row r="271">
       <c r="A271" s="3"/>
-      <c r="E271" s="2"/>
+      <c r="F271" s="2"/>
     </row>
     <row r="272">
       <c r="A272" s="3"/>
-      <c r="E272" s="2"/>
+      <c r="F272" s="2"/>
     </row>
     <row r="273">
       <c r="A273" s="3"/>
-      <c r="E273" s="2"/>
+      <c r="F273" s="2"/>
     </row>
     <row r="274">
       <c r="A274" s="3"/>
-      <c r="E274" s="2"/>
+      <c r="F274" s="2"/>
     </row>
     <row r="275">
       <c r="A275" s="3"/>
-      <c r="E275" s="2"/>
+      <c r="F275" s="2"/>
     </row>
     <row r="276">
       <c r="A276" s="3"/>
-      <c r="E276" s="2"/>
+      <c r="F276" s="2"/>
     </row>
     <row r="277">
       <c r="A277" s="3"/>
-      <c r="E277" s="2"/>
+      <c r="F277" s="2"/>
     </row>
     <row r="278">
       <c r="A278" s="3"/>
-      <c r="E278" s="2"/>
+      <c r="F278" s="2"/>
     </row>
     <row r="279">
       <c r="A279" s="3"/>
-      <c r="E279" s="2"/>
+      <c r="F279" s="2"/>
     </row>
     <row r="280">
       <c r="A280" s="3"/>
-      <c r="E280" s="2"/>
+      <c r="F280" s="2"/>
     </row>
     <row r="281">
       <c r="A281" s="3"/>
-      <c r="E281" s="2"/>
+      <c r="F281" s="2"/>
     </row>
     <row r="282">
       <c r="A282" s="3"/>
-      <c r="E282" s="2"/>
+      <c r="F282" s="2"/>
     </row>
     <row r="283">
       <c r="A283" s="3"/>
-      <c r="E283" s="2"/>
+      <c r="F283" s="2"/>
     </row>
     <row r="284">
       <c r="A284" s="3"/>
-      <c r="E284" s="2"/>
+      <c r="F284" s="2"/>
     </row>
     <row r="285">
       <c r="A285" s="3"/>
-      <c r="E285" s="2"/>
+      <c r="F285" s="2"/>
     </row>
     <row r="286">
       <c r="A286" s="3"/>
-      <c r="E286" s="2"/>
+      <c r="F286" s="2"/>
     </row>
     <row r="287">
       <c r="A287" s="3"/>
-      <c r="E287" s="2"/>
+      <c r="F287" s="2"/>
     </row>
     <row r="288">
       <c r="A288" s="3"/>
-      <c r="E288" s="2"/>
+      <c r="F288" s="2"/>
     </row>
     <row r="289">
       <c r="A289" s="3"/>
-      <c r="E289" s="2"/>
+      <c r="F289" s="2"/>
     </row>
     <row r="290">
       <c r="A290" s="3"/>
-      <c r="E290" s="2"/>
+      <c r="F290" s="2"/>
     </row>
     <row r="291">
       <c r="A291" s="3"/>
-      <c r="E291" s="2"/>
+      <c r="F291" s="2"/>
     </row>
     <row r="292">
       <c r="A292" s="3"/>
-      <c r="E292" s="2"/>
+      <c r="F292" s="2"/>
     </row>
     <row r="293">
       <c r="A293" s="3"/>
-      <c r="E293" s="2"/>
+      <c r="F293" s="2"/>
     </row>
     <row r="294">
       <c r="A294" s="3"/>
-      <c r="E294" s="2"/>
+      <c r="F294" s="2"/>
     </row>
     <row r="295">
       <c r="A295" s="3"/>
-      <c r="E295" s="2"/>
+      <c r="F295" s="2"/>
     </row>
     <row r="296">
       <c r="A296" s="3"/>
-      <c r="E296" s="2"/>
+      <c r="F296" s="2"/>
     </row>
     <row r="297">
       <c r="A297" s="3"/>
-      <c r="E297" s="2"/>
+      <c r="F297" s="2"/>
     </row>
     <row r="298">
       <c r="A298" s="3"/>
-      <c r="E298" s="2"/>
+      <c r="F298" s="2"/>
     </row>
     <row r="299">
       <c r="A299" s="3"/>
-      <c r="E299" s="2"/>
+      <c r="F299" s="2"/>
     </row>
     <row r="300">
       <c r="A300" s="3"/>
-      <c r="E300" s="2"/>
+      <c r="F300" s="2"/>
     </row>
     <row r="301">
       <c r="A301" s="3"/>
-      <c r="E301" s="2"/>
+      <c r="F301" s="2"/>
     </row>
     <row r="302">
       <c r="A302" s="3"/>
-      <c r="E302" s="2"/>
+      <c r="F302" s="2"/>
     </row>
     <row r="303">
       <c r="A303" s="3"/>
-      <c r="E303" s="2"/>
+      <c r="F303" s="2"/>
     </row>
     <row r="304">
       <c r="A304" s="3"/>
-      <c r="E304" s="2"/>
+      <c r="F304" s="2"/>
     </row>
     <row r="305">
       <c r="A305" s="3"/>
-      <c r="E305" s="2"/>
+      <c r="F305" s="2"/>
     </row>
     <row r="306">
       <c r="A306" s="3"/>
-      <c r="E306" s="2"/>
+      <c r="F306" s="2"/>
     </row>
     <row r="307">
       <c r="A307" s="3"/>
-      <c r="E307" s="2"/>
+      <c r="F307" s="2"/>
     </row>
     <row r="308">
       <c r="A308" s="3"/>
-      <c r="E308" s="2"/>
+      <c r="F308" s="2"/>
     </row>
     <row r="309">
       <c r="A309" s="3"/>
-      <c r="E309" s="2"/>
+      <c r="F309" s="2"/>
     </row>
     <row r="310">
       <c r="A310" s="3"/>
-      <c r="E310" s="2"/>
+      <c r="F310" s="2"/>
     </row>
     <row r="311">
       <c r="A311" s="3"/>
-      <c r="E311" s="2"/>
+      <c r="F311" s="2"/>
     </row>
     <row r="312">
       <c r="A312" s="3"/>
-      <c r="E312" s="2"/>
+      <c r="F312" s="2"/>
     </row>
     <row r="313">
       <c r="A313" s="3"/>
-      <c r="E313" s="2"/>
+      <c r="F313" s="2"/>
     </row>
     <row r="314">
       <c r="A314" s="3"/>
-      <c r="E314" s="2"/>
+      <c r="F314" s="2"/>
     </row>
     <row r="315">
       <c r="A315" s="3"/>
-      <c r="E315" s="2"/>
+      <c r="F315" s="2"/>
     </row>
     <row r="316">
       <c r="A316" s="3"/>
-      <c r="E316" s="2"/>
+      <c r="F316" s="2"/>
     </row>
     <row r="317">
       <c r="A317" s="3"/>
-      <c r="E317" s="2"/>
+      <c r="F317" s="2"/>
     </row>
     <row r="318">
       <c r="A318" s="3"/>
-      <c r="E318" s="2"/>
+      <c r="F318" s="2"/>
     </row>
     <row r="319">
       <c r="A319" s="3"/>
-      <c r="E319" s="2"/>
+      <c r="F319" s="2"/>
     </row>
     <row r="320">
       <c r="A320" s="3"/>
-      <c r="E320" s="2"/>
+      <c r="F320" s="2"/>
     </row>
     <row r="321">
       <c r="A321" s="3"/>
-      <c r="E321" s="2"/>
+      <c r="F321" s="2"/>
     </row>
     <row r="322">
       <c r="A322" s="3"/>
-      <c r="E322" s="2"/>
+      <c r="F322" s="2"/>
     </row>
     <row r="323">
       <c r="A323" s="3"/>
-      <c r="E323" s="2"/>
+      <c r="F323" s="2"/>
     </row>
     <row r="324">
       <c r="A324" s="3"/>
-      <c r="E324" s="2"/>
+      <c r="F324" s="2"/>
     </row>
     <row r="325">
       <c r="A325" s="3"/>
-      <c r="E325" s="2"/>
+      <c r="F325" s="2"/>
     </row>
     <row r="326">
       <c r="A326" s="3"/>
-      <c r="E326" s="2"/>
+      <c r="F326" s="2"/>
     </row>
     <row r="327">
       <c r="A327" s="3"/>
-      <c r="E327" s="2"/>
+      <c r="F327" s="2"/>
     </row>
     <row r="328">
       <c r="A328" s="3"/>
-      <c r="E328" s="2"/>
+      <c r="F328" s="2"/>
     </row>
     <row r="329">
       <c r="A329" s="3"/>
-      <c r="E329" s="2"/>
+      <c r="F329" s="2"/>
     </row>
     <row r="330">
       <c r="A330" s="3"/>
-      <c r="E330" s="2"/>
+      <c r="F330" s="2"/>
     </row>
     <row r="331">
       <c r="A331" s="3"/>
-      <c r="E331" s="2"/>
+      <c r="F331" s="2"/>
     </row>
     <row r="332">
       <c r="A332" s="3"/>
-      <c r="E332" s="2"/>
+      <c r="F332" s="2"/>
     </row>
     <row r="333">
       <c r="A333" s="3"/>
-      <c r="E333" s="2"/>
+      <c r="F333" s="2"/>
     </row>
     <row r="334">
       <c r="A334" s="3"/>
-      <c r="E334" s="2"/>
+      <c r="F334" s="2"/>
     </row>
     <row r="335">
       <c r="A335" s="3"/>
-      <c r="E335" s="2"/>
+      <c r="F335" s="2"/>
     </row>
     <row r="336">
       <c r="A336" s="3"/>
-      <c r="E336" s="2"/>
+      <c r="F336" s="2"/>
     </row>
     <row r="337">
       <c r="A337" s="3"/>
-      <c r="E337" s="2"/>
+      <c r="F337" s="2"/>
     </row>
     <row r="338">
       <c r="A338" s="3"/>
-      <c r="E338" s="2"/>
+      <c r="F338" s="2"/>
     </row>
     <row r="339">
       <c r="A339" s="3"/>
-      <c r="E339" s="2"/>
+      <c r="F339" s="2"/>
     </row>
     <row r="340">
       <c r="A340" s="3"/>
-      <c r="E340" s="2"/>
+      <c r="F340" s="2"/>
     </row>
     <row r="341">
       <c r="A341" s="3"/>
-      <c r="E341" s="2"/>
+      <c r="F341" s="2"/>
     </row>
     <row r="342">
       <c r="A342" s="3"/>
-      <c r="E342" s="2"/>
+      <c r="F342" s="2"/>
     </row>
     <row r="343">
       <c r="A343" s="3"/>
-      <c r="E343" s="2"/>
+      <c r="F343" s="2"/>
     </row>
     <row r="344">
       <c r="A344" s="3"/>
-      <c r="E344" s="2"/>
+      <c r="F344" s="2"/>
     </row>
     <row r="345">
       <c r="A345" s="3"/>
-      <c r="E345" s="2"/>
+      <c r="F345" s="2"/>
     </row>
     <row r="346">
       <c r="A346" s="3"/>
-      <c r="E346" s="2"/>
+      <c r="F346" s="2"/>
     </row>
     <row r="347">
       <c r="A347" s="3"/>
-      <c r="E347" s="2"/>
+      <c r="F347" s="2"/>
     </row>
     <row r="348">
       <c r="A348" s="3"/>
-      <c r="E348" s="2"/>
+      <c r="F348" s="2"/>
     </row>
     <row r="349">
       <c r="A349" s="3"/>
-      <c r="E349" s="2"/>
+      <c r="F349" s="2"/>
     </row>
     <row r="350">
       <c r="A350" s="3"/>
-      <c r="E350" s="2"/>
+      <c r="F350" s="2"/>
     </row>
     <row r="351">
       <c r="A351" s="3"/>
-      <c r="E351" s="2"/>
+      <c r="F351" s="2"/>
     </row>
     <row r="352">
       <c r="A352" s="3"/>
-      <c r="E352" s="2"/>
+      <c r="F352" s="2"/>
     </row>
     <row r="353">
       <c r="A353" s="3"/>
-      <c r="E353" s="2"/>
+      <c r="F353" s="2"/>
     </row>
     <row r="354">
       <c r="A354" s="3"/>
-      <c r="E354" s="2"/>
+      <c r="F354" s="2"/>
     </row>
     <row r="355">
       <c r="A355" s="3"/>
-      <c r="E355" s="2"/>
+      <c r="F355" s="2"/>
     </row>
     <row r="356">
       <c r="A356" s="3"/>
-      <c r="E356" s="2"/>
+      <c r="F356" s="2"/>
     </row>
     <row r="357">
       <c r="A357" s="3"/>
-      <c r="E357" s="2"/>
+      <c r="F357" s="2"/>
     </row>
     <row r="358">
       <c r="A358" s="3"/>
-      <c r="E358" s="2"/>
+      <c r="F358" s="2"/>
     </row>
     <row r="359">
       <c r="A359" s="3"/>
-      <c r="E359" s="2"/>
+      <c r="F359" s="2"/>
     </row>
     <row r="360">
       <c r="A360" s="3"/>
-      <c r="E360" s="2"/>
+      <c r="F360" s="2"/>
     </row>
     <row r="361">
       <c r="A361" s="3"/>
-      <c r="E361" s="2"/>
+      <c r="F361" s="2"/>
     </row>
     <row r="362">
       <c r="A362" s="3"/>
-      <c r="E362" s="2"/>
+      <c r="F362" s="2"/>
     </row>
     <row r="363">
       <c r="A363" s="3"/>
-      <c r="E363" s="2"/>
+      <c r="F363" s="2"/>
     </row>
     <row r="364">
       <c r="A364" s="3"/>
-      <c r="E364" s="2"/>
+      <c r="F364" s="2"/>
     </row>
     <row r="365">
       <c r="A365" s="3"/>
-      <c r="E365" s="2"/>
+      <c r="F365" s="2"/>
     </row>
     <row r="366">
       <c r="A366" s="3"/>
-      <c r="E366" s="2"/>
+      <c r="F366" s="2"/>
     </row>
     <row r="367">
       <c r="A367" s="3"/>
-      <c r="E367" s="2"/>
+      <c r="F367" s="2"/>
     </row>
     <row r="368">
       <c r="A368" s="3"/>
-      <c r="E368" s="2"/>
+      <c r="F368" s="2"/>
     </row>
     <row r="369">
       <c r="A369" s="3"/>
-      <c r="E369" s="2"/>
+      <c r="F369" s="2"/>
     </row>
     <row r="370">
       <c r="A370" s="3"/>
-      <c r="E370" s="2"/>
+      <c r="F370" s="2"/>
     </row>
     <row r="371">
       <c r="A371" s="3"/>
-      <c r="E371" s="2"/>
+      <c r="F371" s="2"/>
     </row>
     <row r="372">
       <c r="A372" s="3"/>
-      <c r="E372" s="2"/>
+      <c r="F372" s="2"/>
     </row>
     <row r="373">
       <c r="A373" s="3"/>
-      <c r="E373" s="2"/>
+      <c r="F373" s="2"/>
     </row>
     <row r="374">
       <c r="A374" s="3"/>
-      <c r="E374" s="2"/>
+      <c r="F374" s="2"/>
     </row>
     <row r="375">
       <c r="A375" s="3"/>
-      <c r="E375" s="2"/>
+      <c r="F375" s="2"/>
     </row>
     <row r="376">
       <c r="A376" s="3"/>
-      <c r="E376" s="2"/>
+      <c r="F376" s="2"/>
     </row>
     <row r="377">
       <c r="A377" s="3"/>
-      <c r="E377" s="2"/>
+      <c r="F377" s="2"/>
     </row>
     <row r="378">
       <c r="A378" s="3"/>
-      <c r="E378" s="2"/>
+      <c r="F378" s="2"/>
     </row>
     <row r="379">
       <c r="A379" s="3"/>
-      <c r="E379" s="2"/>
+      <c r="F379" s="2"/>
     </row>
     <row r="380">
       <c r="A380" s="3"/>
-      <c r="E380" s="2"/>
+      <c r="F380" s="2"/>
     </row>
     <row r="381">
       <c r="A381" s="3"/>
-      <c r="E381" s="2"/>
+      <c r="F381" s="2"/>
     </row>
     <row r="382">
       <c r="A382" s="3"/>
-      <c r="E382" s="2"/>
+      <c r="F382" s="2"/>
     </row>
     <row r="383">
       <c r="A383" s="3"/>
-      <c r="E383" s="2"/>
+      <c r="F383" s="2"/>
     </row>
     <row r="384">
       <c r="A384" s="3"/>
-      <c r="E384" s="2"/>
+      <c r="F384" s="2"/>
     </row>
     <row r="385">
       <c r="A385" s="3"/>
-      <c r="E385" s="2"/>
+      <c r="F385" s="2"/>
     </row>
     <row r="386">
       <c r="A386" s="3"/>
-      <c r="E386" s="2"/>
+      <c r="F386" s="2"/>
     </row>
     <row r="387">
       <c r="A387" s="3"/>
-      <c r="E387" s="2"/>
+      <c r="F387" s="2"/>
     </row>
     <row r="388">
       <c r="A388" s="3"/>
-      <c r="E388" s="2"/>
+      <c r="F388" s="2"/>
     </row>
     <row r="389">
       <c r="A389" s="3"/>
-      <c r="E389" s="2"/>
+      <c r="F389" s="2"/>
     </row>
     <row r="390">
       <c r="A390" s="3"/>
-      <c r="E390" s="2"/>
+      <c r="F390" s="2"/>
     </row>
     <row r="391">
       <c r="A391" s="3"/>
-      <c r="E391" s="2"/>
+      <c r="F391" s="2"/>
     </row>
     <row r="392">
       <c r="A392" s="3"/>
-      <c r="E392" s="2"/>
+      <c r="F392" s="2"/>
     </row>
     <row r="393">
       <c r="A393" s="3"/>
-      <c r="E393" s="2"/>
+      <c r="F393" s="2"/>
     </row>
     <row r="394">
       <c r="A394" s="3"/>
-      <c r="E394" s="2"/>
+      <c r="F394" s="2"/>
     </row>
     <row r="395">
       <c r="A395" s="3"/>
-      <c r="E395" s="2"/>
+      <c r="F395" s="2"/>
     </row>
     <row r="396">
       <c r="A396" s="3"/>
-      <c r="E396" s="2"/>
+      <c r="F396" s="2"/>
     </row>
     <row r="397">
       <c r="A397" s="3"/>
-      <c r="E397" s="2"/>
+      <c r="F397" s="2"/>
     </row>
     <row r="398">
       <c r="A398" s="3"/>
-      <c r="E398" s="2"/>
+      <c r="F398" s="2"/>
     </row>
     <row r="399">
       <c r="A399" s="3"/>
-      <c r="E399" s="2"/>
+      <c r="F399" s="2"/>
     </row>
     <row r="400">
       <c r="A400" s="3"/>
-      <c r="E400" s="2"/>
+      <c r="F400" s="2"/>
     </row>
     <row r="401">
       <c r="A401" s="3"/>
-      <c r="E401" s="2"/>
+      <c r="F401" s="2"/>
     </row>
     <row r="402">
       <c r="A402" s="3"/>
-      <c r="E402" s="2"/>
+      <c r="F402" s="2"/>
     </row>
     <row r="403">
       <c r="A403" s="3"/>
-      <c r="E403" s="2"/>
+      <c r="F403" s="2"/>
     </row>
     <row r="404">
       <c r="A404" s="3"/>
-      <c r="E404" s="2"/>
+      <c r="F404" s="2"/>
     </row>
     <row r="405">
       <c r="A405" s="3"/>
-      <c r="E405" s="2"/>
+      <c r="F405" s="2"/>
     </row>
     <row r="406">
       <c r="A406" s="3"/>
-      <c r="E406" s="2"/>
+      <c r="F406" s="2"/>
     </row>
     <row r="407">
       <c r="A407" s="3"/>
-      <c r="E407" s="2"/>
+      <c r="F407" s="2"/>
     </row>
     <row r="408">
       <c r="A408" s="3"/>
-      <c r="E408" s="2"/>
+      <c r="F408" s="2"/>
     </row>
     <row r="409">
       <c r="A409" s="3"/>
-      <c r="E409" s="2"/>
+      <c r="F409" s="2"/>
     </row>
     <row r="410">
       <c r="A410" s="3"/>
-      <c r="E410" s="2"/>
+      <c r="F410" s="2"/>
     </row>
     <row r="411">
       <c r="A411" s="3"/>
-      <c r="E411" s="2"/>
+      <c r="F411" s="2"/>
     </row>
     <row r="412">
       <c r="A412" s="3"/>
-      <c r="E412" s="2"/>
+      <c r="F412" s="2"/>
     </row>
     <row r="413">
       <c r="A413" s="3"/>
-      <c r="E413" s="2"/>
+      <c r="F413" s="2"/>
     </row>
     <row r="414">
       <c r="A414" s="3"/>
-      <c r="E414" s="2"/>
+      <c r="F414" s="2"/>
     </row>
     <row r="415">
       <c r="A415" s="3"/>
-      <c r="E415" s="2"/>
+      <c r="F415" s="2"/>
     </row>
     <row r="416">
       <c r="A416" s="3"/>
-      <c r="E416" s="2"/>
+      <c r="F416" s="2"/>
     </row>
     <row r="417">
       <c r="A417" s="3"/>
-      <c r="E417" s="2"/>
+      <c r="F417" s="2"/>
     </row>
     <row r="418">
       <c r="A418" s="3"/>
-      <c r="E418" s="2"/>
+      <c r="F418" s="2"/>
     </row>
     <row r="419">
       <c r="A419" s="3"/>
-      <c r="E419" s="2"/>
+      <c r="F419" s="2"/>
     </row>
     <row r="420">
       <c r="A420" s="3"/>
-      <c r="E420" s="2"/>
+      <c r="F420" s="2"/>
     </row>
     <row r="421">
       <c r="A421" s="3"/>
-      <c r="E421" s="2"/>
+      <c r="F421" s="2"/>
     </row>
     <row r="422">
       <c r="A422" s="3"/>
-      <c r="E422" s="2"/>
+      <c r="F422" s="2"/>
     </row>
     <row r="423">
       <c r="A423" s="3"/>
-      <c r="E423" s="2"/>
+      <c r="F423" s="2"/>
     </row>
     <row r="424">
       <c r="A424" s="3"/>
-      <c r="E424" s="2"/>
+      <c r="F424" s="2"/>
     </row>
     <row r="425">
       <c r="A425" s="3"/>
-      <c r="E425" s="2"/>
+      <c r="F425" s="2"/>
     </row>
     <row r="426">
       <c r="A426" s="3"/>
-      <c r="E426" s="2"/>
+      <c r="F426" s="2"/>
     </row>
     <row r="427">
       <c r="A427" s="3"/>
-      <c r="E427" s="2"/>
+      <c r="F427" s="2"/>
     </row>
     <row r="428">
       <c r="A428" s="3"/>
-      <c r="E428" s="2"/>
+      <c r="F428" s="2"/>
     </row>
     <row r="429">
       <c r="A429" s="3"/>
-      <c r="E429" s="2"/>
+      <c r="F429" s="2"/>
     </row>
     <row r="430">
       <c r="A430" s="3"/>
-      <c r="E430" s="2"/>
+      <c r="F430" s="2"/>
     </row>
     <row r="431">
       <c r="A431" s="3"/>
-      <c r="E431" s="2"/>
+      <c r="F431" s="2"/>
     </row>
     <row r="432">
       <c r="A432" s="3"/>
-      <c r="E432" s="2"/>
+      <c r="F432" s="2"/>
     </row>
     <row r="433">
       <c r="A433" s="3"/>
-      <c r="E433" s="2"/>
+      <c r="F433" s="2"/>
     </row>
     <row r="434">
       <c r="A434" s="3"/>
-      <c r="E434" s="2"/>
+      <c r="F434" s="2"/>
     </row>
     <row r="435">
       <c r="A435" s="3"/>
-      <c r="E435" s="2"/>
+      <c r="F435" s="2"/>
     </row>
     <row r="436">
       <c r="A436" s="3"/>
-      <c r="E436" s="2"/>
+      <c r="F436" s="2"/>
     </row>
     <row r="437">
       <c r="A437" s="3"/>
-      <c r="E437" s="2"/>
+      <c r="F437" s="2"/>
     </row>
     <row r="438">
       <c r="A438" s="3"/>
-      <c r="E438" s="2"/>
+      <c r="F438" s="2"/>
     </row>
     <row r="439">
       <c r="A439" s="3"/>
-      <c r="E439" s="2"/>
+      <c r="F439" s="2"/>
     </row>
     <row r="440">
       <c r="A440" s="3"/>
-      <c r="E440" s="2"/>
+      <c r="F440" s="2"/>
     </row>
     <row r="441">
       <c r="A441" s="3"/>
-      <c r="E441" s="2"/>
+      <c r="F441" s="2"/>
     </row>
     <row r="442">
       <c r="A442" s="3"/>
-      <c r="E442" s="2"/>
+      <c r="F442" s="2"/>
     </row>
     <row r="443">
       <c r="A443" s="3"/>
-      <c r="E443" s="2"/>
+      <c r="F443" s="2"/>
     </row>
     <row r="444">
       <c r="A444" s="3"/>
-      <c r="E444" s="2"/>
+      <c r="F444" s="2"/>
     </row>
     <row r="445">
       <c r="A445" s="3"/>
-      <c r="E445" s="2"/>
+      <c r="F445" s="2"/>
     </row>
     <row r="446">
       <c r="A446" s="3"/>
-      <c r="E446" s="2"/>
+      <c r="F446" s="2"/>
     </row>
     <row r="447">
       <c r="A447" s="3"/>
-      <c r="E447" s="2"/>
+      <c r="F447" s="2"/>
     </row>
     <row r="448">
       <c r="A448" s="3"/>
-      <c r="E448" s="2"/>
+      <c r="F448" s="2"/>
     </row>
     <row r="449">
       <c r="A449" s="3"/>
-      <c r="E449" s="2"/>
+      <c r="F449" s="2"/>
     </row>
     <row r="450">
       <c r="A450" s="3"/>
-      <c r="E450" s="2"/>
+      <c r="F450" s="2"/>
     </row>
     <row r="451">
       <c r="A451" s="3"/>
-      <c r="E451" s="2"/>
+      <c r="F451" s="2"/>
     </row>
     <row r="452">
       <c r="A452" s="3"/>
-      <c r="E452" s="2"/>
+      <c r="F452" s="2"/>
     </row>
     <row r="453">
       <c r="A453" s="3"/>
-      <c r="E453" s="2"/>
+      <c r="F453" s="2"/>
     </row>
     <row r="454">
       <c r="A454" s="3"/>
-      <c r="E454" s="2"/>
+      <c r="F454" s="2"/>
     </row>
     <row r="455">
       <c r="A455" s="3"/>
-      <c r="E455" s="2"/>
+      <c r="F455" s="2"/>
     </row>
     <row r="456">
       <c r="A456" s="3"/>
-      <c r="E456" s="2"/>
+      <c r="F456" s="2"/>
     </row>
     <row r="457">
       <c r="A457" s="3"/>
-      <c r="E457" s="2"/>
+      <c r="F457" s="2"/>
     </row>
     <row r="458">
       <c r="A458" s="3"/>
-      <c r="E458" s="2"/>
+      <c r="F458" s="2"/>
     </row>
     <row r="459">
       <c r="A459" s="3"/>
-      <c r="E459" s="2"/>
+      <c r="F459" s="2"/>
     </row>
     <row r="460">
       <c r="A460" s="3"/>
-      <c r="E460" s="2"/>
+      <c r="F460" s="2"/>
     </row>
     <row r="461">
       <c r="A461" s="3"/>
-      <c r="E461" s="2"/>
+      <c r="F461" s="2"/>
     </row>
     <row r="462">
       <c r="A462" s="3"/>
-      <c r="E462" s="2"/>
+      <c r="F462" s="2"/>
     </row>
     <row r="463">
       <c r="A463" s="3"/>
-      <c r="E463" s="2"/>
+      <c r="F463" s="2"/>
     </row>
     <row r="464">
       <c r="A464" s="3"/>
-      <c r="E464" s="2"/>
+      <c r="F464" s="2"/>
     </row>
     <row r="465">
       <c r="A465" s="3"/>
-      <c r="E465" s="2"/>
+      <c r="F465" s="2"/>
     </row>
     <row r="466">
       <c r="A466" s="3"/>
-      <c r="E466" s="2"/>
+      <c r="F466" s="2"/>
     </row>
     <row r="467">
       <c r="A467" s="3"/>
-      <c r="E467" s="2"/>
+      <c r="F467" s="2"/>
     </row>
     <row r="468">
       <c r="A468" s="3"/>
-      <c r="E468" s="2"/>
+      <c r="F468" s="2"/>
     </row>
     <row r="469">
       <c r="A469" s="3"/>
-      <c r="E469" s="2"/>
+      <c r="F469" s="2"/>
     </row>
     <row r="470">
       <c r="A470" s="3"/>
-      <c r="E470" s="2"/>
+      <c r="F470" s="2"/>
     </row>
     <row r="471">
       <c r="A471" s="3"/>
-      <c r="E471" s="2"/>
+      <c r="F471" s="2"/>
     </row>
     <row r="472">
       <c r="A472" s="3"/>
-      <c r="E472" s="2"/>
+      <c r="F472" s="2"/>
     </row>
     <row r="473">
       <c r="A473" s="3"/>
-      <c r="E473" s="2"/>
+      <c r="F473" s="2"/>
     </row>
     <row r="474">
       <c r="A474" s="3"/>
-      <c r="E474" s="2"/>
+      <c r="F474" s="2"/>
     </row>
     <row r="475">
       <c r="A475" s="3"/>
-      <c r="E475" s="2"/>
+      <c r="F475" s="2"/>
     </row>
     <row r="476">
       <c r="A476" s="3"/>
-      <c r="E476" s="2"/>
+      <c r="F476" s="2"/>
     </row>
     <row r="477">
       <c r="A477" s="3"/>
-      <c r="E477" s="2"/>
+      <c r="F477" s="2"/>
     </row>
     <row r="478">
       <c r="A478" s="3"/>
-      <c r="E478" s="2"/>
+      <c r="F478" s="2"/>
     </row>
     <row r="479">
       <c r="A479" s="3"/>
-      <c r="E479" s="2"/>
+      <c r="F479" s="2"/>
     </row>
     <row r="480">
       <c r="A480" s="3"/>
-      <c r="E480" s="2"/>
+      <c r="F480" s="2"/>
     </row>
     <row r="481">
       <c r="A481" s="3"/>
-      <c r="E481" s="2"/>
+      <c r="F481" s="2"/>
     </row>
     <row r="482">
       <c r="A482" s="3"/>
-      <c r="E482" s="2"/>
+      <c r="F482" s="2"/>
     </row>
     <row r="483">
       <c r="A483" s="3"/>
-      <c r="E483" s="2"/>
+      <c r="F483" s="2"/>
     </row>
     <row r="484">
       <c r="A484" s="3"/>
-      <c r="E484" s="2"/>
+      <c r="F484" s="2"/>
     </row>
     <row r="485">
       <c r="A485" s="3"/>
-      <c r="E485" s="2"/>
+      <c r="F485" s="2"/>
     </row>
     <row r="486">
       <c r="A486" s="3"/>
-      <c r="E486" s="2"/>
+      <c r="F486" s="2"/>
     </row>
     <row r="487">
       <c r="A487" s="3"/>
-      <c r="E487" s="2"/>
+      <c r="F487" s="2"/>
     </row>
     <row r="488">
       <c r="A488" s="3"/>
-      <c r="E488" s="2"/>
+      <c r="F488" s="2"/>
     </row>
     <row r="489">
       <c r="A489" s="3"/>
-      <c r="E489" s="2"/>
+      <c r="F489" s="2"/>
     </row>
     <row r="490">
       <c r="A490" s="3"/>
-      <c r="E490" s="2"/>
+      <c r="F490" s="2"/>
     </row>
     <row r="491">
       <c r="A491" s="3"/>
-      <c r="E491" s="2"/>
+      <c r="F491" s="2"/>
     </row>
     <row r="492">
       <c r="A492" s="3"/>
-      <c r="E492" s="2"/>
+      <c r="F492" s="2"/>
     </row>
     <row r="493">
       <c r="A493" s="3"/>
-      <c r="E493" s="2"/>
+      <c r="F493" s="2"/>
     </row>
     <row r="494">
       <c r="A494" s="3"/>
-      <c r="E494" s="2"/>
+      <c r="F494" s="2"/>
     </row>
     <row r="495">
       <c r="A495" s="3"/>
-      <c r="E495" s="2"/>
+      <c r="F495" s="2"/>
     </row>
     <row r="496">
       <c r="A496" s="3"/>
-      <c r="E496" s="2"/>
+      <c r="F496" s="2"/>
     </row>
     <row r="497">
       <c r="A497" s="3"/>
-      <c r="E497" s="2"/>
+      <c r="F497" s="2"/>
     </row>
     <row r="498">
       <c r="A498" s="3"/>
-      <c r="E498" s="2"/>
+      <c r="F498" s="2"/>
     </row>
     <row r="499">
       <c r="A499" s="3"/>
-      <c r="E499" s="2"/>
+      <c r="F499" s="2"/>
     </row>
     <row r="500">
       <c r="A500" s="3"/>
-      <c r="E500" s="2"/>
+      <c r="F500" s="2"/>
     </row>
     <row r="501">
       <c r="A501" s="3"/>
-      <c r="E501" s="2"/>
+      <c r="F501" s="2"/>
     </row>
     <row r="502">
       <c r="A502" s="3"/>
-      <c r="E502" s="2"/>
+      <c r="F502" s="2"/>
     </row>
     <row r="503">
       <c r="A503" s="3"/>
-      <c r="E503" s="2"/>
+      <c r="F503" s="2"/>
     </row>
     <row r="504">
       <c r="A504" s="3"/>
-      <c r="E504" s="2"/>
+      <c r="F504" s="2"/>
     </row>
     <row r="505">
       <c r="A505" s="3"/>
-      <c r="E505" s="2"/>
+      <c r="F505" s="2"/>
     </row>
     <row r="506">
       <c r="A506" s="3"/>
-      <c r="E506" s="2"/>
+      <c r="F506" s="2"/>
     </row>
     <row r="507">
       <c r="A507" s="3"/>
-      <c r="E507" s="2"/>
+      <c r="F507" s="2"/>
     </row>
     <row r="508">
       <c r="A508" s="3"/>
-      <c r="E508" s="2"/>
+      <c r="F508" s="2"/>
     </row>
     <row r="509">
       <c r="A509" s="3"/>
-      <c r="E509" s="2"/>
+      <c r="F509" s="2"/>
     </row>
     <row r="510">
       <c r="A510" s="3"/>
-      <c r="E510" s="2"/>
+      <c r="F510" s="2"/>
     </row>
     <row r="511">
       <c r="A511" s="3"/>
-      <c r="E511" s="2"/>
+      <c r="F511" s="2"/>
     </row>
     <row r="512">
       <c r="A512" s="3"/>
-      <c r="E512" s="2"/>
+      <c r="F512" s="2"/>
     </row>
     <row r="513">
       <c r="A513" s="3"/>
-      <c r="E513" s="2"/>
+      <c r="F513" s="2"/>
     </row>
     <row r="514">
       <c r="A514" s="3"/>
-      <c r="E514" s="2"/>
+      <c r="F514" s="2"/>
     </row>
     <row r="515">
       <c r="A515" s="3"/>
-      <c r="E515" s="2"/>
+      <c r="F515" s="2"/>
     </row>
     <row r="516">
       <c r="A516" s="3"/>
-      <c r="E516" s="2"/>
+      <c r="F516" s="2"/>
     </row>
     <row r="517">
       <c r="A517" s="3"/>
-      <c r="E517" s="2"/>
+      <c r="F517" s="2"/>
     </row>
     <row r="518">
       <c r="A518" s="3"/>
-      <c r="E518" s="2"/>
+      <c r="F518" s="2"/>
     </row>
     <row r="519">
       <c r="A519" s="3"/>
-      <c r="E519" s="2"/>
+      <c r="F519" s="2"/>
     </row>
     <row r="520">
       <c r="A520" s="3"/>
-      <c r="E520" s="2"/>
+      <c r="F520" s="2"/>
     </row>
     <row r="521">
       <c r="A521" s="3"/>
-      <c r="E521" s="2"/>
+      <c r="F521" s="2"/>
     </row>
     <row r="522">
       <c r="A522" s="3"/>
-      <c r="E522" s="2"/>
+      <c r="F522" s="2"/>
     </row>
     <row r="523">
       <c r="A523" s="3"/>
-      <c r="E523" s="2"/>
+      <c r="F523" s="2"/>
     </row>
     <row r="524">
       <c r="A524" s="3"/>
-      <c r="E524" s="2"/>
+      <c r="F524" s="2"/>
     </row>
     <row r="525">
       <c r="A525" s="3"/>
-      <c r="E525" s="2"/>
+      <c r="F525" s="2"/>
     </row>
     <row r="526">
       <c r="A526" s="3"/>
-      <c r="E526" s="2"/>
+      <c r="F526" s="2"/>
     </row>
     <row r="527">
       <c r="A527" s="3"/>
-      <c r="E527" s="2"/>
+      <c r="F527" s="2"/>
     </row>
     <row r="528">
       <c r="A528" s="3"/>
-      <c r="E528" s="2"/>
+      <c r="F528" s="2"/>
     </row>
     <row r="529">
       <c r="A529" s="3"/>
-      <c r="E529" s="2"/>
+      <c r="F529" s="2"/>
     </row>
     <row r="530">
       <c r="A530" s="3"/>
-      <c r="E530" s="2"/>
+      <c r="F530" s="2"/>
     </row>
     <row r="531">
       <c r="A531" s="3"/>
-      <c r="E531" s="2"/>
+      <c r="F531" s="2"/>
     </row>
     <row r="532">
       <c r="A532" s="3"/>
-      <c r="E532" s="2"/>
+      <c r="F532" s="2"/>
     </row>
     <row r="533">
       <c r="A533" s="3"/>
-      <c r="E533" s="2"/>
+      <c r="F533" s="2"/>
     </row>
     <row r="534">
       <c r="A534" s="3"/>
-      <c r="E534" s="2"/>
+      <c r="F534" s="2"/>
     </row>
     <row r="535">
       <c r="A535" s="3"/>
-      <c r="E535" s="2"/>
+      <c r="F535" s="2"/>
     </row>
     <row r="536">
       <c r="A536" s="3"/>
-      <c r="E536" s="2"/>
+      <c r="F536" s="2"/>
     </row>
     <row r="537">
       <c r="A537" s="3"/>
-      <c r="E537" s="2"/>
+      <c r="F537" s="2"/>
     </row>
     <row r="538">
       <c r="A538" s="3"/>
-      <c r="E538" s="2"/>
+      <c r="F538" s="2"/>
     </row>
     <row r="539">
       <c r="A539" s="3"/>
-      <c r="E539" s="2"/>
+      <c r="F539" s="2"/>
     </row>
     <row r="540">
       <c r="A540" s="3"/>
-      <c r="E540" s="2"/>
+      <c r="F540" s="2"/>
     </row>
     <row r="541">
       <c r="A541" s="3"/>
-      <c r="E541" s="2"/>
+      <c r="F541" s="2"/>
     </row>
     <row r="542">
       <c r="A542" s="3"/>
-      <c r="E542" s="2"/>
+      <c r="F542" s="2"/>
     </row>
     <row r="543">
       <c r="A543" s="3"/>
-      <c r="E543" s="2"/>
+      <c r="F543" s="2"/>
     </row>
     <row r="544">
       <c r="A544" s="3"/>
-      <c r="E544" s="2"/>
+      <c r="F544" s="2"/>
     </row>
     <row r="545">
       <c r="A545" s="3"/>
-      <c r="E545" s="2"/>
+      <c r="F545" s="2"/>
     </row>
     <row r="546">
       <c r="A546" s="3"/>
-      <c r="E546" s="2"/>
+      <c r="F546" s="2"/>
     </row>
     <row r="547">
       <c r="A547" s="3"/>
-      <c r="E547" s="2"/>
+      <c r="F547" s="2"/>
     </row>
     <row r="548">
       <c r="A548" s="3"/>
-      <c r="E548" s="2"/>
+      <c r="F548" s="2"/>
     </row>
     <row r="549">
       <c r="A549" s="3"/>
-      <c r="E549" s="2"/>
+      <c r="F549" s="2"/>
     </row>
     <row r="550">
       <c r="A550" s="3"/>
-      <c r="E550" s="2"/>
+      <c r="F550" s="2"/>
     </row>
     <row r="551">
       <c r="A551" s="3"/>
-      <c r="E551" s="2"/>
+      <c r="F551" s="2"/>
     </row>
     <row r="552">
       <c r="A552" s="3"/>
-      <c r="E552" s="2"/>
+      <c r="F552" s="2"/>
     </row>
     <row r="553">
       <c r="A553" s="3"/>
-      <c r="E553" s="2"/>
+      <c r="F553" s="2"/>
     </row>
     <row r="554">
       <c r="A554" s="3"/>
-      <c r="E554" s="2"/>
+      <c r="F554" s="2"/>
     </row>
     <row r="555">
       <c r="A555" s="3"/>
-      <c r="E555" s="2"/>
+      <c r="F555" s="2"/>
     </row>
     <row r="556">
       <c r="A556" s="3"/>
-      <c r="E556" s="2"/>
+      <c r="F556" s="2"/>
     </row>
     <row r="557">
       <c r="A557" s="3"/>
-      <c r="E557" s="2"/>
+      <c r="F557" s="2"/>
     </row>
     <row r="558">
       <c r="A558" s="3"/>
-      <c r="E558" s="2"/>
+      <c r="F558" s="2"/>
     </row>
     <row r="559">
       <c r="A559" s="3"/>
-      <c r="E559" s="2"/>
+      <c r="F559" s="2"/>
     </row>
     <row r="560">
       <c r="A560" s="3"/>
-      <c r="E560" s="2"/>
+      <c r="F560" s="2"/>
     </row>
     <row r="561">
       <c r="A561" s="3"/>
-      <c r="E561" s="2"/>
+      <c r="F561" s="2"/>
     </row>
     <row r="562">
       <c r="A562" s="3"/>
-      <c r="E562" s="2"/>
+      <c r="F562" s="2"/>
     </row>
     <row r="563">
       <c r="A563" s="3"/>
-      <c r="E563" s="2"/>
+      <c r="F563" s="2"/>
     </row>
     <row r="564">
       <c r="A564" s="3"/>
-      <c r="E564" s="2"/>
+      <c r="F564" s="2"/>
     </row>
     <row r="565">
       <c r="A565" s="3"/>
-      <c r="E565" s="2"/>
+      <c r="F565" s="2"/>
     </row>
     <row r="566">
       <c r="A566" s="3"/>
-      <c r="E566" s="2"/>
+      <c r="F566" s="2"/>
     </row>
     <row r="567">
       <c r="A567" s="3"/>
-      <c r="E567" s="2"/>
+      <c r="F567" s="2"/>
     </row>
     <row r="568">
       <c r="A568" s="3"/>
-      <c r="E568" s="2"/>
+      <c r="F568" s="2"/>
     </row>
     <row r="569">
       <c r="A569" s="3"/>
-      <c r="E569" s="2"/>
+      <c r="F569" s="2"/>
     </row>
     <row r="570">
       <c r="A570" s="3"/>
-      <c r="E570" s="2"/>
+      <c r="F570" s="2"/>
     </row>
     <row r="571">
       <c r="A571" s="3"/>
-      <c r="E571" s="2"/>
+      <c r="F571" s="2"/>
     </row>
     <row r="572">
       <c r="A572" s="3"/>
-      <c r="E572" s="2"/>
+      <c r="F572" s="2"/>
     </row>
     <row r="573">
       <c r="A573" s="3"/>
-      <c r="E573" s="2"/>
+      <c r="F573" s="2"/>
     </row>
     <row r="574">
       <c r="A574" s="3"/>
-      <c r="E574" s="2"/>
+      <c r="F574" s="2"/>
     </row>
     <row r="575">
       <c r="A575" s="3"/>
-      <c r="E575" s="2"/>
+      <c r="F575" s="2"/>
     </row>
     <row r="576">
       <c r="A576" s="3"/>
-      <c r="E576" s="2"/>
+      <c r="F576" s="2"/>
     </row>
     <row r="577">
       <c r="A577" s="3"/>
-      <c r="E577" s="2"/>
+      <c r="F577" s="2"/>
     </row>
     <row r="578">
       <c r="A578" s="3"/>
-      <c r="E578" s="2"/>
+      <c r="F578" s="2"/>
     </row>
     <row r="579">
       <c r="A579" s="3"/>
-      <c r="E579" s="2"/>
+      <c r="F579" s="2"/>
     </row>
     <row r="580">
       <c r="A580" s="3"/>
-      <c r="E580" s="2"/>
+      <c r="F580" s="2"/>
     </row>
     <row r="581">
       <c r="A581" s="3"/>
-      <c r="E581" s="2"/>
+      <c r="F581" s="2"/>
     </row>
     <row r="582">
       <c r="A582" s="3"/>
-      <c r="E582" s="2"/>
+      <c r="F582" s="2"/>
     </row>
     <row r="583">
       <c r="A583" s="3"/>
-      <c r="E583" s="2"/>
+      <c r="F583" s="2"/>
     </row>
     <row r="584">
       <c r="A584" s="3"/>
-      <c r="E584" s="2"/>
+      <c r="F584" s="2"/>
     </row>
     <row r="585">
       <c r="A585" s="3"/>
-      <c r="E585" s="2"/>
+      <c r="F585" s="2"/>
     </row>
     <row r="586">
       <c r="A586" s="3"/>
-      <c r="E586" s="2"/>
+      <c r="F586" s="2"/>
     </row>
     <row r="587">
       <c r="A587" s="3"/>
-      <c r="E587" s="2"/>
+      <c r="F587" s="2"/>
     </row>
     <row r="588">
       <c r="A588" s="3"/>
-      <c r="E588" s="2"/>
+      <c r="F588" s="2"/>
     </row>
     <row r="589">
       <c r="A589" s="3"/>
-      <c r="E589" s="2"/>
+      <c r="F589" s="2"/>
     </row>
     <row r="590">
       <c r="A590" s="3"/>
-      <c r="E590" s="2"/>
+      <c r="F590" s="2"/>
     </row>
     <row r="591">
       <c r="A591" s="3"/>
-      <c r="E591" s="2"/>
+      <c r="F591" s="2"/>
     </row>
     <row r="592">
       <c r="A592" s="3"/>
-      <c r="E592" s="2"/>
+      <c r="F592" s="2"/>
     </row>
     <row r="593">
       <c r="A593" s="3"/>
-      <c r="E593" s="2"/>
+      <c r="F593" s="2"/>
     </row>
     <row r="594">
       <c r="A594" s="3"/>
-      <c r="E594" s="2"/>
+      <c r="F594" s="2"/>
     </row>
     <row r="595">
       <c r="A595" s="3"/>
-      <c r="E595" s="2"/>
+      <c r="F595" s="2"/>
     </row>
     <row r="596">
       <c r="A596" s="3"/>
-      <c r="E596" s="2"/>
+      <c r="F596" s="2"/>
     </row>
     <row r="597">
       <c r="A597" s="3"/>
-      <c r="E597" s="2"/>
+      <c r="F597" s="2"/>
     </row>
     <row r="598">
       <c r="A598" s="3"/>
-      <c r="E598" s="2"/>
+      <c r="F598" s="2"/>
     </row>
     <row r="599">
       <c r="A599" s="3"/>
-      <c r="E599" s="2"/>
+      <c r="F599" s="2"/>
     </row>
     <row r="600">
       <c r="A600" s="3"/>
-      <c r="E600" s="2"/>
+      <c r="F600" s="2"/>
     </row>
     <row r="601">
       <c r="A601" s="3"/>
-      <c r="E601" s="2"/>
+      <c r="F601" s="2"/>
     </row>
     <row r="602">
       <c r="A602" s="3"/>
-      <c r="E602" s="2"/>
+      <c r="F602" s="2"/>
     </row>
     <row r="603">
       <c r="A603" s="3"/>
-      <c r="E603" s="2"/>
+      <c r="F603" s="2"/>
     </row>
     <row r="604">
       <c r="A604" s="3"/>
-      <c r="E604" s="2"/>
+      <c r="F604" s="2"/>
     </row>
     <row r="605">
       <c r="A605" s="3"/>
-      <c r="E605" s="2"/>
+      <c r="F605" s="2"/>
     </row>
     <row r="606">
       <c r="A606" s="3"/>
-      <c r="E606" s="2"/>
+      <c r="F606" s="2"/>
     </row>
     <row r="607">
       <c r="A607" s="3"/>
-      <c r="E607" s="2"/>
+      <c r="F607" s="2"/>
     </row>
     <row r="608">
       <c r="A608" s="3"/>
-      <c r="E608" s="2"/>
+      <c r="F608" s="2"/>
     </row>
     <row r="609">
       <c r="A609" s="3"/>
-      <c r="E609" s="2"/>
+      <c r="F609" s="2"/>
     </row>
     <row r="610">
       <c r="A610" s="3"/>
-      <c r="E610" s="2"/>
+      <c r="F610" s="2"/>
     </row>
     <row r="611">
       <c r="A611" s="3"/>
-      <c r="E611" s="2"/>
+      <c r="F611" s="2"/>
     </row>
     <row r="612">
       <c r="A612" s="3"/>
-      <c r="E612" s="2"/>
+      <c r="F612" s="2"/>
     </row>
     <row r="613">
       <c r="A613" s="3"/>
-      <c r="E613" s="2"/>
+      <c r="F613" s="2"/>
     </row>
     <row r="614">
       <c r="A614" s="3"/>
-      <c r="E614" s="2"/>
+      <c r="F614" s="2"/>
     </row>
     <row r="615">
       <c r="A615" s="3"/>
-      <c r="E615" s="2"/>
+      <c r="F615" s="2"/>
     </row>
     <row r="616">
       <c r="A616" s="3"/>
-      <c r="E616" s="2"/>
+      <c r="F616" s="2"/>
     </row>
     <row r="617">
       <c r="A617" s="3"/>
-      <c r="E617" s="2"/>
+      <c r="F617" s="2"/>
     </row>
     <row r="618">
       <c r="A618" s="3"/>
-      <c r="E618" s="2"/>
+      <c r="F618" s="2"/>
     </row>
     <row r="619">
       <c r="A619" s="3"/>
-      <c r="E619" s="2"/>
+      <c r="F619" s="2"/>
     </row>
     <row r="620">
       <c r="A620" s="3"/>
-      <c r="E620" s="2"/>
+      <c r="F620" s="2"/>
     </row>
     <row r="621">
       <c r="A621" s="3"/>
-      <c r="E621" s="2"/>
+      <c r="F621" s="2"/>
     </row>
     <row r="622">
       <c r="A622" s="3"/>
-      <c r="E622" s="2"/>
+      <c r="F622" s="2"/>
     </row>
     <row r="623">
       <c r="A623" s="3"/>
-      <c r="E623" s="2"/>
+      <c r="F623" s="2"/>
     </row>
     <row r="624">
       <c r="A624" s="3"/>
-      <c r="E624" s="2"/>
+      <c r="F624" s="2"/>
     </row>
     <row r="625">
       <c r="A625" s="3"/>
-      <c r="E625" s="2"/>
+      <c r="F625" s="2"/>
     </row>
     <row r="626">
       <c r="A626" s="3"/>
-      <c r="E626" s="2"/>
+      <c r="F626" s="2"/>
     </row>
     <row r="627">
       <c r="A627" s="3"/>
-      <c r="E627" s="2"/>
+      <c r="F627" s="2"/>
     </row>
     <row r="628">
       <c r="A628" s="3"/>
-      <c r="E628" s="2"/>
+      <c r="F628" s="2"/>
     </row>
     <row r="629">
       <c r="A629" s="3"/>
-      <c r="E629" s="2"/>
+      <c r="F629" s="2"/>
     </row>
     <row r="630">
       <c r="A630" s="3"/>
-      <c r="E630" s="2"/>
+      <c r="F630" s="2"/>
     </row>
     <row r="631">
       <c r="A631" s="3"/>
-      <c r="E631" s="2"/>
+      <c r="F631" s="2"/>
     </row>
     <row r="632">
       <c r="A632" s="3"/>
-      <c r="E632" s="2"/>
+      <c r="F632" s="2"/>
     </row>
     <row r="633">
       <c r="A633" s="3"/>
-      <c r="E633" s="2"/>
+      <c r="F633" s="2"/>
     </row>
     <row r="634">
       <c r="A634" s="3"/>
-      <c r="E634" s="2"/>
+      <c r="F634" s="2"/>
     </row>
     <row r="635">
       <c r="A635" s="3"/>
-      <c r="E635" s="2"/>
+      <c r="F635" s="2"/>
     </row>
     <row r="636">
       <c r="A636" s="3"/>
-      <c r="E636" s="2"/>
+      <c r="F636" s="2"/>
     </row>
     <row r="637">
       <c r="A637" s="3"/>
-      <c r="E637" s="2"/>
+      <c r="F637" s="2"/>
     </row>
     <row r="638">
       <c r="A638" s="3"/>
-      <c r="E638" s="2"/>
+      <c r="F638" s="2"/>
     </row>
     <row r="639">
       <c r="A639" s="3"/>
-      <c r="E639" s="2"/>
+      <c r="F639" s="2"/>
     </row>
     <row r="640">
       <c r="A640" s="3"/>
-      <c r="E640" s="2"/>
+      <c r="F640" s="2"/>
     </row>
     <row r="641">
       <c r="A641" s="3"/>
-      <c r="E641" s="2"/>
+      <c r="F641" s="2"/>
     </row>
     <row r="642">
       <c r="A642" s="3"/>
-      <c r="E642" s="2"/>
+      <c r="F642" s="2"/>
     </row>
     <row r="643">
       <c r="A643" s="3"/>
-      <c r="E643" s="2"/>
+      <c r="F643" s="2"/>
     </row>
     <row r="644">
       <c r="A644" s="3"/>
-      <c r="E644" s="2"/>
+      <c r="F644" s="2"/>
     </row>
     <row r="645">
       <c r="A645" s="3"/>
-      <c r="E645" s="2"/>
+      <c r="F645" s="2"/>
     </row>
     <row r="646">
       <c r="A646" s="3"/>
-      <c r="E646" s="2"/>
+      <c r="F646" s="2"/>
     </row>
     <row r="647">
       <c r="A647" s="3"/>
-      <c r="E647" s="2"/>
+      <c r="F647" s="2"/>
     </row>
     <row r="648">
       <c r="A648" s="3"/>
-      <c r="E648" s="2"/>
+      <c r="F648" s="2"/>
     </row>
     <row r="649">
       <c r="A649" s="3"/>
-      <c r="E649" s="2"/>
+      <c r="F649" s="2"/>
     </row>
     <row r="650">
       <c r="A650" s="3"/>
-      <c r="E650" s="2"/>
+      <c r="F650" s="2"/>
     </row>
     <row r="651">
       <c r="A651" s="3"/>
-      <c r="E651" s="2"/>
+      <c r="F651" s="2"/>
     </row>
     <row r="652">
       <c r="A652" s="3"/>
-      <c r="E652" s="2"/>
+      <c r="F652" s="2"/>
     </row>
     <row r="653">
       <c r="A653" s="3"/>
-      <c r="E653" s="2"/>
+      <c r="F653" s="2"/>
     </row>
     <row r="654">
       <c r="A654" s="3"/>
-      <c r="E654" s="2"/>
+      <c r="F654" s="2"/>
     </row>
     <row r="655">
       <c r="A655" s="3"/>
-      <c r="E655" s="2"/>
+      <c r="F655" s="2"/>
     </row>
     <row r="656">
       <c r="A656" s="3"/>
-      <c r="E656" s="2"/>
+      <c r="F656" s="2"/>
     </row>
     <row r="657">
       <c r="A657" s="3"/>
-      <c r="E657" s="2"/>
+      <c r="F657" s="2"/>
     </row>
     <row r="658">
       <c r="A658" s="3"/>
-      <c r="E658" s="2"/>
+      <c r="F658" s="2"/>
     </row>
     <row r="659">
       <c r="A659" s="3"/>
-      <c r="E659" s="2"/>
+      <c r="F659" s="2"/>
     </row>
     <row r="660">
       <c r="A660" s="3"/>
-      <c r="E660" s="2"/>
+      <c r="F660" s="2"/>
     </row>
     <row r="661">
       <c r="A661" s="3"/>
-      <c r="E661" s="2"/>
+      <c r="F661" s="2"/>
     </row>
     <row r="662">
       <c r="A662" s="3"/>
-      <c r="E662" s="2"/>
+      <c r="F662" s="2"/>
     </row>
     <row r="663">
       <c r="A663" s="3"/>
-      <c r="E663" s="2"/>
+      <c r="F663" s="2"/>
     </row>
     <row r="664">
       <c r="A664" s="3"/>
-      <c r="E664" s="2"/>
+      <c r="F664" s="2"/>
     </row>
     <row r="665">
       <c r="A665" s="3"/>
-      <c r="E665" s="2"/>
+      <c r="F665" s="2"/>
     </row>
     <row r="666">
       <c r="A666" s="3"/>
-      <c r="E666" s="2"/>
+      <c r="F666" s="2"/>
     </row>
     <row r="667">
       <c r="A667" s="3"/>
-      <c r="E667" s="2"/>
+      <c r="F667" s="2"/>
     </row>
     <row r="668">
       <c r="A668" s="3"/>
-      <c r="E668" s="2"/>
+      <c r="F668" s="2"/>
     </row>
     <row r="669">
       <c r="A669" s="3"/>
-      <c r="E669" s="2"/>
+      <c r="F669" s="2"/>
     </row>
     <row r="670">
       <c r="A670" s="3"/>
-      <c r="E670" s="2"/>
+      <c r="F670" s="2"/>
     </row>
     <row r="671">
       <c r="A671" s="3"/>
-      <c r="E671" s="2"/>
+      <c r="F671" s="2"/>
     </row>
     <row r="672">
       <c r="A672" s="3"/>
-      <c r="E672" s="2"/>
+      <c r="F672" s="2"/>
     </row>
     <row r="673">
       <c r="A673" s="3"/>
-      <c r="E673" s="2"/>
+      <c r="F673" s="2"/>
     </row>
     <row r="674">
       <c r="A674" s="3"/>
-      <c r="E674" s="2"/>
+      <c r="F674" s="2"/>
     </row>
     <row r="675">
       <c r="A675" s="3"/>
-      <c r="E675" s="2"/>
+      <c r="F675" s="2"/>
     </row>
     <row r="676">
       <c r="A676" s="3"/>
-      <c r="E676" s="2"/>
+      <c r="F676" s="2"/>
     </row>
     <row r="677">
       <c r="A677" s="3"/>
-      <c r="E677" s="2"/>
+      <c r="F677" s="2"/>
     </row>
     <row r="678">
       <c r="A678" s="3"/>
-      <c r="E678" s="2"/>
+      <c r="F678" s="2"/>
     </row>
     <row r="679">
       <c r="A679" s="3"/>
-      <c r="E679" s="2"/>
+      <c r="F679" s="2"/>
     </row>
     <row r="680">
       <c r="A680" s="3"/>
-      <c r="E680" s="2"/>
+      <c r="F680" s="2"/>
     </row>
     <row r="681">
       <c r="A681" s="3"/>
-      <c r="E681" s="2"/>
+      <c r="F681" s="2"/>
     </row>
     <row r="682">
       <c r="A682" s="3"/>
-      <c r="E682" s="2"/>
+      <c r="F682" s="2"/>
     </row>
     <row r="683">
       <c r="A683" s="3"/>
-      <c r="E683" s="2"/>
+      <c r="F683" s="2"/>
     </row>
     <row r="684">
       <c r="A684" s="3"/>
-      <c r="E684" s="2"/>
+      <c r="F684" s="2"/>
     </row>
     <row r="685">
       <c r="A685" s="3"/>
-      <c r="E685" s="2"/>
+      <c r="F685" s="2"/>
     </row>
     <row r="686">
       <c r="A686" s="3"/>
-      <c r="E686" s="2"/>
+      <c r="F686" s="2"/>
     </row>
     <row r="687">
       <c r="A687" s="3"/>
-      <c r="E687" s="2"/>
+      <c r="F687" s="2"/>
     </row>
     <row r="688">
       <c r="A688" s="3"/>
-      <c r="E688" s="2"/>
+      <c r="F688" s="2"/>
     </row>
     <row r="689">
       <c r="A689" s="3"/>
-      <c r="E689" s="2"/>
+      <c r="F689" s="2"/>
     </row>
     <row r="690">
       <c r="A690" s="3"/>
-      <c r="E690" s="2"/>
+      <c r="F690" s="2"/>
     </row>
     <row r="691">
       <c r="A691" s="3"/>
-      <c r="E691" s="2"/>
+      <c r="F691" s="2"/>
     </row>
     <row r="692">
       <c r="A692" s="3"/>
-      <c r="E692" s="2"/>
+      <c r="F692" s="2"/>
     </row>
     <row r="693">
       <c r="A693" s="3"/>
-      <c r="E693" s="2"/>
+      <c r="F693" s="2"/>
     </row>
     <row r="694">
       <c r="A694" s="3"/>
-      <c r="E694" s="2"/>
+      <c r="F694" s="2"/>
     </row>
     <row r="695">
       <c r="A695" s="3"/>
-      <c r="E695" s="2"/>
+      <c r="F695" s="2"/>
     </row>
     <row r="696">
       <c r="A696" s="3"/>
-      <c r="E696" s="2"/>
+      <c r="F696" s="2"/>
     </row>
     <row r="697">
       <c r="A697" s="3"/>
-      <c r="E697" s="2"/>
+      <c r="F697" s="2"/>
     </row>
     <row r="698">
       <c r="A698" s="3"/>
-      <c r="E698" s="2"/>
+      <c r="F698" s="2"/>
     </row>
     <row r="699">
       <c r="A699" s="3"/>
-      <c r="E699" s="2"/>
+      <c r="F699" s="2"/>
     </row>
     <row r="700">
       <c r="A700" s="3"/>
-      <c r="E700" s="2"/>
+      <c r="F700" s="2"/>
     </row>
     <row r="701">
       <c r="A701" s="3"/>
-      <c r="E701" s="2"/>
+      <c r="F701" s="2"/>
     </row>
     <row r="702">
       <c r="A702" s="3"/>
-      <c r="E702" s="2"/>
+      <c r="F702" s="2"/>
     </row>
     <row r="703">
       <c r="A703" s="3"/>
-      <c r="E703" s="2"/>
+      <c r="F703" s="2"/>
     </row>
     <row r="704">
       <c r="A704" s="3"/>
-      <c r="E704" s="2"/>
+      <c r="F704" s="2"/>
     </row>
     <row r="705">
       <c r="A705" s="3"/>
-      <c r="E705" s="2"/>
+      <c r="F705" s="2"/>
     </row>
     <row r="706">
       <c r="A706" s="3"/>
-      <c r="E706" s="2"/>
+      <c r="F706" s="2"/>
     </row>
     <row r="707">
       <c r="A707" s="3"/>
-      <c r="E707" s="2"/>
+      <c r="F707" s="2"/>
     </row>
     <row r="708">
       <c r="A708" s="3"/>
-      <c r="E708" s="2"/>
+      <c r="F708" s="2"/>
     </row>
     <row r="709">
       <c r="A709" s="3"/>
-      <c r="E709" s="2"/>
+      <c r="F709" s="2"/>
     </row>
     <row r="710">
       <c r="A710" s="3"/>
-      <c r="E710" s="2"/>
+      <c r="F710" s="2"/>
     </row>
     <row r="711">
       <c r="A711" s="3"/>
-      <c r="E711" s="2"/>
+      <c r="F711" s="2"/>
     </row>
     <row r="712">
       <c r="A712" s="3"/>
-      <c r="E712" s="2"/>
+      <c r="F712" s="2"/>
     </row>
     <row r="713">
       <c r="A713" s="3"/>
-      <c r="E713" s="2"/>
+      <c r="F713" s="2"/>
     </row>
     <row r="714">
       <c r="A714" s="3"/>
-      <c r="E714" s="2"/>
+      <c r="F714" s="2"/>
     </row>
     <row r="715">
       <c r="A715" s="3"/>
-      <c r="E715" s="2"/>
+      <c r="F715" s="2"/>
     </row>
     <row r="716">
       <c r="A716" s="3"/>
-      <c r="E716" s="2"/>
+      <c r="F716" s="2"/>
     </row>
     <row r="717">
       <c r="A717" s="3"/>
-      <c r="E717" s="2"/>
+      <c r="F717" s="2"/>
     </row>
     <row r="718">
       <c r="A718" s="3"/>
-      <c r="E718" s="2"/>
+      <c r="F718" s="2"/>
     </row>
     <row r="719">
       <c r="A719" s="3"/>
-      <c r="E719" s="2"/>
+      <c r="F719" s="2"/>
     </row>
     <row r="720">
       <c r="A720" s="3"/>
-      <c r="E720" s="2"/>
+      <c r="F720" s="2"/>
     </row>
     <row r="721">
       <c r="A721" s="3"/>
-      <c r="E721" s="2"/>
+      <c r="F721" s="2"/>
     </row>
     <row r="722">
       <c r="A722" s="3"/>
-      <c r="E722" s="2"/>
+      <c r="F722" s="2"/>
     </row>
     <row r="723">
       <c r="A723" s="3"/>
-      <c r="E723" s="2"/>
+      <c r="F723" s="2"/>
     </row>
     <row r="724">
       <c r="A724" s="3"/>
-      <c r="E724" s="2"/>
+      <c r="F724" s="2"/>
     </row>
     <row r="725">
       <c r="A725" s="3"/>
-      <c r="E725" s="2"/>
+      <c r="F725" s="2"/>
     </row>
     <row r="726">
       <c r="A726" s="3"/>
-      <c r="E726" s="2"/>
+      <c r="F726" s="2"/>
     </row>
     <row r="727">
       <c r="A727" s="3"/>
-      <c r="E727" s="2"/>
+      <c r="F727" s="2"/>
     </row>
     <row r="728">
       <c r="A728" s="3"/>
-      <c r="E728" s="2"/>
+      <c r="F728" s="2"/>
     </row>
     <row r="729">
       <c r="A729" s="3"/>
-      <c r="E729" s="2"/>
+      <c r="F729" s="2"/>
     </row>
     <row r="730">
       <c r="A730" s="3"/>
-      <c r="E730" s="2"/>
+      <c r="F730" s="2"/>
     </row>
     <row r="731">
       <c r="A731" s="3"/>
-      <c r="E731" s="2"/>
+      <c r="F731" s="2"/>
     </row>
     <row r="732">
       <c r="A732" s="3"/>
-      <c r="E732" s="2"/>
+      <c r="F732" s="2"/>
     </row>
     <row r="733">
       <c r="A733" s="3"/>
-      <c r="E733" s="2"/>
+      <c r="F733" s="2"/>
     </row>
     <row r="734">
       <c r="A734" s="3"/>
-      <c r="E734" s="2"/>
+      <c r="F734" s="2"/>
     </row>
     <row r="735">
       <c r="A735" s="3"/>
-      <c r="E735" s="2"/>
+      <c r="F735" s="2"/>
     </row>
     <row r="736">
       <c r="A736" s="3"/>
-      <c r="E736" s="2"/>
+      <c r="F736" s="2"/>
     </row>
     <row r="737">
       <c r="A737" s="3"/>
-      <c r="E737" s="2"/>
+      <c r="F737" s="2"/>
     </row>
     <row r="738">
       <c r="A738" s="3"/>
-      <c r="E738" s="2"/>
+      <c r="F738" s="2"/>
     </row>
     <row r="739">
       <c r="A739" s="3"/>
-      <c r="E739" s="2"/>
+      <c r="F739" s="2"/>
     </row>
     <row r="740">
       <c r="A740" s="3"/>
-      <c r="E740" s="2"/>
+      <c r="F740" s="2"/>
     </row>
     <row r="741">
       <c r="A741" s="3"/>
-      <c r="E741" s="2"/>
+      <c r="F741" s="2"/>
     </row>
     <row r="742">
       <c r="A742" s="3"/>
-      <c r="E742" s="2"/>
+      <c r="F742" s="2"/>
     </row>
     <row r="743">
       <c r="A743" s="3"/>
-      <c r="E743" s="2"/>
+      <c r="F743" s="2"/>
     </row>
     <row r="744">
       <c r="A744" s="3"/>
-      <c r="E744" s="2"/>
+      <c r="F744" s="2"/>
     </row>
     <row r="745">
       <c r="A745" s="3"/>
-      <c r="E745" s="2"/>
+      <c r="F745" s="2"/>
     </row>
     <row r="746">
       <c r="A746" s="3"/>
-      <c r="E746" s="2"/>
+      <c r="F746" s="2"/>
     </row>
     <row r="747">
       <c r="A747" s="3"/>
-      <c r="E747" s="2"/>
+      <c r="F747" s="2"/>
     </row>
     <row r="748">
       <c r="A748" s="3"/>
-      <c r="E748" s="2"/>
+      <c r="F748" s="2"/>
     </row>
     <row r="749">
       <c r="A749" s="3"/>
-      <c r="E749" s="2"/>
+      <c r="F749" s="2"/>
     </row>
     <row r="750">
       <c r="A750" s="3"/>
-      <c r="E750" s="2"/>
+      <c r="F750" s="2"/>
     </row>
     <row r="751">
       <c r="A751" s="3"/>
-      <c r="E751" s="2"/>
+      <c r="F751" s="2"/>
     </row>
     <row r="752">
       <c r="A752" s="3"/>
-      <c r="E752" s="2"/>
+      <c r="F752" s="2"/>
     </row>
     <row r="753">
       <c r="A753" s="3"/>
-      <c r="E753" s="2"/>
+      <c r="F753" s="2"/>
     </row>
     <row r="754">
       <c r="A754" s="3"/>
-      <c r="E754" s="2"/>
+      <c r="F754" s="2"/>
     </row>
     <row r="755">
       <c r="A755" s="3"/>
-      <c r="E755" s="2"/>
+      <c r="F755" s="2"/>
     </row>
     <row r="756">
       <c r="A756" s="3"/>
-      <c r="E756" s="2"/>
+      <c r="F756" s="2"/>
     </row>
     <row r="757">
       <c r="A757" s="3"/>
-      <c r="E757" s="2"/>
+      <c r="F757" s="2"/>
     </row>
     <row r="758">
       <c r="A758" s="3"/>
-      <c r="E758" s="2"/>
+      <c r="F758" s="2"/>
     </row>
     <row r="759">
       <c r="A759" s="3"/>
-      <c r="E759" s="2"/>
+      <c r="F759" s="2"/>
     </row>
     <row r="760">
       <c r="A760" s="3"/>
-      <c r="E760" s="2"/>
+      <c r="F760" s="2"/>
     </row>
     <row r="761">
       <c r="A761" s="3"/>
-      <c r="E761" s="2"/>
+      <c r="F761" s="2"/>
     </row>
     <row r="762">
       <c r="A762" s="3"/>
-      <c r="E762" s="2"/>
+      <c r="F762" s="2"/>
     </row>
     <row r="763">
       <c r="A763" s="3"/>
-      <c r="E763" s="2"/>
+      <c r="F763" s="2"/>
     </row>
     <row r="764">
       <c r="A764" s="3"/>
-      <c r="E764" s="2"/>
+      <c r="F764" s="2"/>
     </row>
     <row r="765">
       <c r="A765" s="3"/>
-      <c r="E765" s="2"/>
+      <c r="F765" s="2"/>
     </row>
     <row r="766">
       <c r="A766" s="3"/>
-      <c r="E766" s="2"/>
+      <c r="F766" s="2"/>
     </row>
     <row r="767">
       <c r="A767" s="3"/>
-      <c r="E767" s="2"/>
+      <c r="F767" s="2"/>
     </row>
     <row r="768">
       <c r="A768" s="3"/>
-      <c r="E768" s="2"/>
+      <c r="F768" s="2"/>
     </row>
     <row r="769">
       <c r="A769" s="3"/>
-      <c r="E769" s="2"/>
+      <c r="F769" s="2"/>
     </row>
     <row r="770">
       <c r="A770" s="3"/>
-      <c r="E770" s="2"/>
+      <c r="F770" s="2"/>
     </row>
     <row r="771">
       <c r="A771" s="3"/>
-      <c r="E771" s="2"/>
+      <c r="F771" s="2"/>
     </row>
     <row r="772">
       <c r="A772" s="3"/>
-      <c r="E772" s="2"/>
+      <c r="F772" s="2"/>
     </row>
     <row r="773">
       <c r="A773" s="3"/>
-      <c r="E773" s="2"/>
+      <c r="F773" s="2"/>
     </row>
     <row r="774">
       <c r="A774" s="3"/>
-      <c r="E774" s="2"/>
+      <c r="F774" s="2"/>
     </row>
     <row r="775">
       <c r="A775" s="3"/>
-      <c r="E775" s="2"/>
+      <c r="F775" s="2"/>
     </row>
     <row r="776">
       <c r="A776" s="3"/>
-      <c r="E776" s="2"/>
+      <c r="F776" s="2"/>
     </row>
     <row r="777">
       <c r="A777" s="3"/>
-      <c r="E777" s="2"/>
+      <c r="F777" s="2"/>
     </row>
     <row r="778">
       <c r="A778" s="3"/>
-      <c r="E778" s="2"/>
+      <c r="F778" s="2"/>
     </row>
     <row r="779">
       <c r="A779" s="3"/>
-      <c r="E779" s="2"/>
+      <c r="F779" s="2"/>
     </row>
     <row r="780">
       <c r="A780" s="3"/>
-      <c r="E780" s="2"/>
+      <c r="F780" s="2"/>
     </row>
     <row r="781">
       <c r="A781" s="3"/>
-      <c r="E781" s="2"/>
+      <c r="F781" s="2"/>
     </row>
     <row r="782">
       <c r="A782" s="3"/>
-      <c r="E782" s="2"/>
+      <c r="F782" s="2"/>
     </row>
     <row r="783">
       <c r="A783" s="3"/>
-      <c r="E783" s="2"/>
+      <c r="F783" s="2"/>
     </row>
     <row r="784">
       <c r="A784" s="3"/>
-      <c r="E784" s="2"/>
+      <c r="F784" s="2"/>
     </row>
     <row r="785">
       <c r="A785" s="3"/>
-      <c r="E785" s="2"/>
+      <c r="F785" s="2"/>
     </row>
     <row r="786">
       <c r="A786" s="3"/>
-      <c r="E786" s="2"/>
+      <c r="F786" s="2"/>
     </row>
     <row r="787">
       <c r="A787" s="3"/>
-      <c r="E787" s="2"/>
+      <c r="F787" s="2"/>
     </row>
     <row r="788">
       <c r="A788" s="3"/>
-      <c r="E788" s="2"/>
+      <c r="F788" s="2"/>
     </row>
     <row r="789">
       <c r="A789" s="3"/>
-      <c r="E789" s="2"/>
+      <c r="F789" s="2"/>
     </row>
     <row r="790">
       <c r="A790" s="3"/>
-      <c r="E790" s="2"/>
+      <c r="F790" s="2"/>
     </row>
     <row r="791">
       <c r="A791" s="3"/>
-      <c r="E791" s="2"/>
+      <c r="F791" s="2"/>
     </row>
     <row r="792">
       <c r="A792" s="3"/>
-      <c r="E792" s="2"/>
+      <c r="F792" s="2"/>
     </row>
     <row r="793">
       <c r="A793" s="3"/>
-      <c r="E793" s="2"/>
+      <c r="F793" s="2"/>
     </row>
     <row r="794">
       <c r="A794" s="3"/>
-      <c r="E794" s="2"/>
+      <c r="F794" s="2"/>
     </row>
     <row r="795">
       <c r="A795" s="3"/>
-      <c r="E795" s="2"/>
+      <c r="F795" s="2"/>
     </row>
     <row r="796">
       <c r="A796" s="3"/>
-      <c r="E796" s="2"/>
+      <c r="F796" s="2"/>
     </row>
     <row r="797">
       <c r="A797" s="3"/>
-      <c r="E797" s="2"/>
+      <c r="F797" s="2"/>
     </row>
     <row r="798">
       <c r="A798" s="3"/>
-      <c r="E798" s="2"/>
+      <c r="F798" s="2"/>
     </row>
     <row r="799">
       <c r="A799" s="3"/>
-      <c r="E799" s="2"/>
+      <c r="F799" s="2"/>
     </row>
     <row r="800">
       <c r="A800" s="3"/>
-      <c r="E800" s="2"/>
+      <c r="F800" s="2"/>
     </row>
     <row r="801">
       <c r="A801" s="3"/>
-      <c r="E801" s="2"/>
+      <c r="F801" s="2"/>
     </row>
     <row r="802">
       <c r="A802" s="3"/>
-      <c r="E802" s="2"/>
+      <c r="F802" s="2"/>
     </row>
     <row r="803">
       <c r="A803" s="3"/>
-      <c r="E803" s="2"/>
+      <c r="F803" s="2"/>
     </row>
     <row r="804">
       <c r="A804" s="3"/>
-      <c r="E804" s="2"/>
+      <c r="F804" s="2"/>
     </row>
     <row r="805">
       <c r="A805" s="3"/>
-      <c r="E805" s="2"/>
+      <c r="F805" s="2"/>
     </row>
     <row r="806">
       <c r="A806" s="3"/>
-      <c r="E806" s="2"/>
+      <c r="F806" s="2"/>
     </row>
     <row r="807">
       <c r="A807" s="3"/>
-      <c r="E807" s="2"/>
+      <c r="F807" s="2"/>
     </row>
     <row r="808">
       <c r="A808" s="3"/>
-      <c r="E808" s="2"/>
+      <c r="F808" s="2"/>
     </row>
     <row r="809">
       <c r="A809" s="3"/>
-      <c r="E809" s="2"/>
+      <c r="F809" s="2"/>
     </row>
     <row r="810">
       <c r="A810" s="3"/>
-      <c r="E810" s="2"/>
+      <c r="F810" s="2"/>
     </row>
     <row r="811">
       <c r="A811" s="3"/>
-      <c r="E811" s="2"/>
+      <c r="F811" s="2"/>
     </row>
     <row r="812">
       <c r="A812" s="3"/>
-      <c r="E812" s="2"/>
+      <c r="F812" s="2"/>
     </row>
     <row r="813">
       <c r="A813" s="3"/>
-      <c r="E813" s="2"/>
+      <c r="F813" s="2"/>
     </row>
     <row r="814">
       <c r="A814" s="3"/>
-      <c r="E814" s="2"/>
+      <c r="F814" s="2"/>
     </row>
     <row r="815">
       <c r="A815" s="3"/>
-      <c r="E815" s="2"/>
+      <c r="F815" s="2"/>
     </row>
     <row r="816">
       <c r="A816" s="3"/>
-      <c r="E816" s="2"/>
+      <c r="F816" s="2"/>
     </row>
     <row r="817">
       <c r="A817" s="3"/>
-      <c r="E817" s="2"/>
+      <c r="F817" s="2"/>
     </row>
     <row r="818">
       <c r="A818" s="3"/>
-      <c r="E818" s="2"/>
+      <c r="F818" s="2"/>
     </row>
     <row r="819">
       <c r="A819" s="3"/>
-      <c r="E819" s="2"/>
+      <c r="F819" s="2"/>
     </row>
     <row r="820">
       <c r="A820" s="3"/>
-      <c r="E820" s="2"/>
+      <c r="F820" s="2"/>
     </row>
     <row r="821">
       <c r="A821" s="3"/>
-      <c r="E821" s="2"/>
+      <c r="F821" s="2"/>
     </row>
     <row r="822">
       <c r="A822" s="3"/>
-      <c r="E822" s="2"/>
+      <c r="F822" s="2"/>
     </row>
     <row r="823">
       <c r="A823" s="3"/>
-      <c r="E823" s="2"/>
+      <c r="F823" s="2"/>
     </row>
     <row r="824">
       <c r="A824" s="3"/>
-      <c r="E824" s="2"/>
+      <c r="F824" s="2"/>
     </row>
     <row r="825">
       <c r="A825" s="3"/>
-      <c r="E825" s="2"/>
+      <c r="F825" s="2"/>
     </row>
     <row r="826">
       <c r="A826" s="3"/>
-      <c r="E826" s="2"/>
+      <c r="F826" s="2"/>
     </row>
     <row r="827">
       <c r="A827" s="3"/>
-      <c r="E827" s="2"/>
+      <c r="F827" s="2"/>
     </row>
     <row r="828">
       <c r="A828" s="3"/>
-      <c r="E828" s="2"/>
+      <c r="F828" s="2"/>
     </row>
     <row r="829">
       <c r="A829" s="3"/>
-      <c r="E829" s="2"/>
+      <c r="F829" s="2"/>
     </row>
     <row r="830">
       <c r="A830" s="3"/>
-      <c r="E830" s="2"/>
+      <c r="F830" s="2"/>
     </row>
     <row r="831">
       <c r="A831" s="3"/>
-      <c r="E831" s="2"/>
+      <c r="F831" s="2"/>
     </row>
     <row r="832">
       <c r="A832" s="3"/>
-      <c r="E832" s="2"/>
+      <c r="F832" s="2"/>
     </row>
     <row r="833">
       <c r="A833" s="3"/>
-      <c r="E833" s="2"/>
+      <c r="F833" s="2"/>
     </row>
     <row r="834">
       <c r="A834" s="3"/>
-      <c r="E834" s="2"/>
+      <c r="F834" s="2"/>
     </row>
     <row r="835">
       <c r="A835" s="3"/>
-      <c r="E835" s="2"/>
+      <c r="F835" s="2"/>
     </row>
     <row r="836">
       <c r="A836" s="3"/>
-      <c r="E836" s="2"/>
+      <c r="F836" s="2"/>
     </row>
     <row r="837">
       <c r="A837" s="3"/>
-      <c r="E837" s="2"/>
+      <c r="F837" s="2"/>
     </row>
     <row r="838">
       <c r="A838" s="3"/>
-      <c r="E838" s="2"/>
+      <c r="F838" s="2"/>
     </row>
     <row r="839">
       <c r="A839" s="3"/>
-      <c r="E839" s="2"/>
+      <c r="F839" s="2"/>
     </row>
     <row r="840">
       <c r="A840" s="3"/>
-      <c r="E840" s="2"/>
+      <c r="F840" s="2"/>
     </row>
     <row r="841">
       <c r="A841" s="3"/>
-      <c r="E841" s="2"/>
+      <c r="F841" s="2"/>
     </row>
     <row r="842">
       <c r="A842" s="3"/>
-      <c r="E842" s="2"/>
+      <c r="F842" s="2"/>
     </row>
     <row r="843">
       <c r="A843" s="3"/>
-      <c r="E843" s="2"/>
+      <c r="F843" s="2"/>
     </row>
     <row r="844">
       <c r="A844" s="3"/>
-      <c r="E844" s="2"/>
+      <c r="F844" s="2"/>
     </row>
     <row r="845">
       <c r="A845" s="3"/>
-      <c r="E845" s="2"/>
+      <c r="F845" s="2"/>
     </row>
     <row r="846">
       <c r="A846" s="3"/>
-      <c r="E846" s="2"/>
+      <c r="F846" s="2"/>
     </row>
     <row r="847">
       <c r="A847" s="3"/>
-      <c r="E847" s="2"/>
+      <c r="F847" s="2"/>
     </row>
     <row r="848">
       <c r="A848" s="3"/>
-      <c r="E848" s="2"/>
+      <c r="F848" s="2"/>
     </row>
     <row r="849">
       <c r="A849" s="3"/>
-      <c r="E849" s="2"/>
+      <c r="F849" s="2"/>
     </row>
     <row r="850">
       <c r="A850" s="3"/>
-      <c r="E850" s="2"/>
+      <c r="F850" s="2"/>
     </row>
     <row r="851">
       <c r="A851" s="3"/>
-      <c r="E851" s="2"/>
+      <c r="F851" s="2"/>
     </row>
     <row r="852">
       <c r="A852" s="3"/>
-      <c r="E852" s="2"/>
+      <c r="F852" s="2"/>
     </row>
     <row r="853">
       <c r="A853" s="3"/>
-      <c r="E853" s="2"/>
+      <c r="F853" s="2"/>
     </row>
     <row r="854">
       <c r="A854" s="3"/>
-      <c r="E854" s="2"/>
+      <c r="F854" s="2"/>
     </row>
     <row r="855">
       <c r="A855" s="3"/>
-      <c r="E855" s="2"/>
+      <c r="F855" s="2"/>
     </row>
     <row r="856">
       <c r="A856" s="3"/>
-      <c r="E856" s="2"/>
+      <c r="F856" s="2"/>
     </row>
     <row r="857">
       <c r="A857" s="3"/>
-      <c r="E857" s="2"/>
+      <c r="F857" s="2"/>
     </row>
     <row r="858">
       <c r="A858" s="3"/>
-      <c r="E858" s="2"/>
+      <c r="F858" s="2"/>
     </row>
     <row r="859">
       <c r="A859" s="3"/>
-      <c r="E859" s="2"/>
+      <c r="F859" s="2"/>
     </row>
     <row r="860">
       <c r="A860" s="3"/>
-      <c r="E860" s="2"/>
+      <c r="F860" s="2"/>
     </row>
     <row r="861">
       <c r="A861" s="3"/>
-      <c r="E861" s="2"/>
+      <c r="F861" s="2"/>
     </row>
     <row r="862">
       <c r="A862" s="3"/>
-      <c r="E862" s="2"/>
+      <c r="F862" s="2"/>
     </row>
     <row r="863">
       <c r="A863" s="3"/>
-      <c r="E863" s="2"/>
+      <c r="F863" s="2"/>
     </row>
     <row r="864">
       <c r="A864" s="3"/>
-      <c r="E864" s="2"/>
+      <c r="F864" s="2"/>
     </row>
     <row r="865">
       <c r="A865" s="3"/>
-      <c r="E865" s="2"/>
+      <c r="F865" s="2"/>
     </row>
     <row r="866">
       <c r="A866" s="3"/>
-      <c r="E866" s="2"/>
+      <c r="F866" s="2"/>
     </row>
     <row r="867">
       <c r="A867" s="3"/>
-      <c r="E867" s="2"/>
+      <c r="F867" s="2"/>
     </row>
     <row r="868">
       <c r="A868" s="3"/>
-      <c r="E868" s="2"/>
+      <c r="F868" s="2"/>
     </row>
     <row r="869">
       <c r="A869" s="3"/>
-      <c r="E869" s="2"/>
+      <c r="F869" s="2"/>
     </row>
     <row r="870">
       <c r="A870" s="3"/>
-      <c r="E870" s="2"/>
+      <c r="F870" s="2"/>
     </row>
     <row r="871">
       <c r="A871" s="3"/>
-      <c r="E871" s="2"/>
+      <c r="F871" s="2"/>
     </row>
     <row r="872">
       <c r="A872" s="3"/>
-      <c r="E872" s="2"/>
+      <c r="F872" s="2"/>
     </row>
     <row r="873">
       <c r="A873" s="3"/>
-      <c r="E873" s="2"/>
+      <c r="F873" s="2"/>
     </row>
     <row r="874">
       <c r="A874" s="3"/>
-      <c r="E874" s="2"/>
+      <c r="F874" s="2"/>
     </row>
     <row r="875">
       <c r="A875" s="3"/>
-      <c r="E875" s="2"/>
+      <c r="F875" s="2"/>
     </row>
     <row r="876">
       <c r="A876" s="3"/>
-      <c r="E876" s="2"/>
+      <c r="F876" s="2"/>
     </row>
     <row r="877">
       <c r="A877" s="3"/>
-      <c r="E877" s="2"/>
+      <c r="F877" s="2"/>
     </row>
     <row r="878">
       <c r="A878" s="3"/>
-      <c r="E878" s="2"/>
+      <c r="F878" s="2"/>
     </row>
     <row r="879">
       <c r="A879" s="3"/>
-      <c r="E879" s="2"/>
+      <c r="F879" s="2"/>
     </row>
     <row r="880">
       <c r="A880" s="3"/>
-      <c r="E880" s="2"/>
+      <c r="F880" s="2"/>
     </row>
     <row r="881">
       <c r="A881" s="3"/>
-      <c r="E881" s="2"/>
+      <c r="F881" s="2"/>
     </row>
     <row r="882">
       <c r="A882" s="3"/>
-      <c r="E882" s="2"/>
+      <c r="F882" s="2"/>
     </row>
     <row r="883">
       <c r="A883" s="3"/>
-      <c r="E883" s="2"/>
+      <c r="F883" s="2"/>
     </row>
     <row r="884">
       <c r="A884" s="3"/>
-      <c r="E884" s="2"/>
+      <c r="F884" s="2"/>
     </row>
     <row r="885">
       <c r="A885" s="3"/>
-      <c r="E885" s="2"/>
+      <c r="F885" s="2"/>
     </row>
     <row r="886">
       <c r="A886" s="3"/>
-      <c r="E886" s="2"/>
+      <c r="F886" s="2"/>
     </row>
     <row r="887">
       <c r="A887" s="3"/>
-      <c r="E887" s="2"/>
+      <c r="F887" s="2"/>
     </row>
     <row r="888">
       <c r="A888" s="3"/>
-      <c r="E888" s="2"/>
+      <c r="F888" s="2"/>
     </row>
     <row r="889">
       <c r="A889" s="3"/>
-      <c r="E889" s="2"/>
+      <c r="F889" s="2"/>
     </row>
     <row r="890">
       <c r="A890" s="3"/>
-      <c r="E890" s="2"/>
+      <c r="F890" s="2"/>
     </row>
     <row r="891">
       <c r="A891" s="3"/>
-      <c r="E891" s="2"/>
+      <c r="F891" s="2"/>
     </row>
     <row r="892">
       <c r="A892" s="3"/>
-      <c r="E892" s="2"/>
+      <c r="F892" s="2"/>
     </row>
     <row r="893">
       <c r="A893" s="3"/>
-      <c r="E893" s="2"/>
+      <c r="F893" s="2"/>
     </row>
     <row r="894">
       <c r="A894" s="3"/>
-      <c r="E894" s="2"/>
+      <c r="F894" s="2"/>
     </row>
     <row r="895">
       <c r="A895" s="3"/>
-      <c r="E895" s="2"/>
+      <c r="F895" s="2"/>
     </row>
     <row r="896">
       <c r="A896" s="3"/>
-      <c r="E896" s="2"/>
+      <c r="F896" s="2"/>
     </row>
     <row r="897">
       <c r="A897" s="3"/>
-      <c r="E897" s="2"/>
+      <c r="F897" s="2"/>
     </row>
     <row r="898">
       <c r="A898" s="3"/>
-      <c r="E898" s="2"/>
+      <c r="F898" s="2"/>
     </row>
     <row r="899">
       <c r="A899" s="3"/>
-      <c r="E899" s="2"/>
+      <c r="F899" s="2"/>
     </row>
     <row r="900">
       <c r="A900" s="3"/>
-      <c r="E900" s="2"/>
+      <c r="F900" s="2"/>
     </row>
     <row r="901">
       <c r="A901" s="3"/>
-      <c r="E901" s="2"/>
+      <c r="F901" s="2"/>
     </row>
     <row r="902">
       <c r="A902" s="3"/>
-      <c r="E902" s="2"/>
+      <c r="F902" s="2"/>
     </row>
     <row r="903">
       <c r="A903" s="3"/>
-      <c r="E903" s="2"/>
+      <c r="F903" s="2"/>
     </row>
     <row r="904">
       <c r="A904" s="3"/>
-      <c r="E904" s="2"/>
+      <c r="F904" s="2"/>
     </row>
     <row r="905">
       <c r="A905" s="3"/>
-      <c r="E905" s="2"/>
+      <c r="F905" s="2"/>
     </row>
     <row r="906">
       <c r="A906" s="3"/>
-      <c r="E906" s="2"/>
+      <c r="F906" s="2"/>
     </row>
     <row r="907">
       <c r="A907" s="3"/>
-      <c r="E907" s="2"/>
+      <c r="F907" s="2"/>
     </row>
     <row r="908">
       <c r="A908" s="3"/>
-      <c r="E908" s="2"/>
+      <c r="F908" s="2"/>
     </row>
     <row r="909">
       <c r="A909" s="3"/>
-      <c r="E909" s="2"/>
+      <c r="F909" s="2"/>
     </row>
     <row r="910">
       <c r="A910" s="3"/>
-      <c r="E910" s="2"/>
+      <c r="F910" s="2"/>
     </row>
     <row r="911">
       <c r="A911" s="3"/>
-      <c r="E911" s="2"/>
+      <c r="F911" s="2"/>
     </row>
     <row r="912">
       <c r="A912" s="3"/>
-      <c r="E912" s="2"/>
+      <c r="F912" s="2"/>
     </row>
     <row r="913">
       <c r="A913" s="3"/>
-      <c r="E913" s="2"/>
+      <c r="F913" s="2"/>
     </row>
     <row r="914">
       <c r="A914" s="3"/>
-      <c r="E914" s="2"/>
+      <c r="F914" s="2"/>
     </row>
     <row r="915">
       <c r="A915" s="3"/>
-      <c r="E915" s="2"/>
+      <c r="F915" s="2"/>
     </row>
     <row r="916">
       <c r="A916" s="3"/>
-      <c r="E916" s="2"/>
+      <c r="F916" s="2"/>
     </row>
     <row r="917">
       <c r="A917" s="3"/>
-      <c r="E917" s="2"/>
+      <c r="F917" s="2"/>
     </row>
     <row r="918">
       <c r="A918" s="3"/>
-      <c r="E918" s="2"/>
+      <c r="F918" s="2"/>
     </row>
     <row r="919">
       <c r="A919" s="3"/>
-      <c r="E919" s="2"/>
+      <c r="F919" s="2"/>
     </row>
     <row r="920">
       <c r="A920" s="3"/>
-      <c r="E920" s="2"/>
+      <c r="F920" s="2"/>
     </row>
     <row r="921">
       <c r="A921" s="3"/>
-      <c r="E921" s="2"/>
+      <c r="F921" s="2"/>
     </row>
     <row r="922">
       <c r="A922" s="3"/>
-      <c r="E922" s="2"/>
+      <c r="F922" s="2"/>
     </row>
     <row r="923">
       <c r="A923" s="3"/>
-      <c r="E923" s="2"/>
+      <c r="F923" s="2"/>
     </row>
     <row r="924">
       <c r="A924" s="3"/>
-      <c r="E924" s="2"/>
+      <c r="F924" s="2"/>
     </row>
     <row r="925">
       <c r="A925" s="3"/>
-      <c r="E925" s="2"/>
+      <c r="F925" s="2"/>
     </row>
     <row r="926">
       <c r="A926" s="3"/>
-      <c r="E926" s="2"/>
+      <c r="F926" s="2"/>
     </row>
     <row r="927">
       <c r="A927" s="3"/>
-      <c r="E927" s="2"/>
+      <c r="F927" s="2"/>
     </row>
     <row r="928">
       <c r="A928" s="3"/>
-      <c r="E928" s="2"/>
+      <c r="F928" s="2"/>
     </row>
     <row r="929">
       <c r="A929" s="3"/>
-      <c r="E929" s="2"/>
+      <c r="F929" s="2"/>
     </row>
     <row r="930">
       <c r="A930" s="3"/>
-      <c r="E930" s="2"/>
+      <c r="F930" s="2"/>
     </row>
     <row r="931">
       <c r="A931" s="3"/>
-      <c r="E931" s="2"/>
+      <c r="F931" s="2"/>
     </row>
     <row r="932">
       <c r="A932" s="3"/>
-      <c r="E932" s="2"/>
+      <c r="F932" s="2"/>
     </row>
     <row r="933">
       <c r="A933" s="3"/>
-      <c r="E933" s="2"/>
+      <c r="F933" s="2"/>
     </row>
     <row r="934">
       <c r="A934" s="3"/>
-      <c r="E934" s="2"/>
+      <c r="F934" s="2"/>
     </row>
     <row r="935">
       <c r="A935" s="3"/>
-      <c r="E935" s="2"/>
+      <c r="F935" s="2"/>
     </row>
     <row r="936">
       <c r="A936" s="3"/>
-      <c r="E936" s="2"/>
+      <c r="F936" s="2"/>
     </row>
     <row r="937">
       <c r="A937" s="3"/>
-      <c r="E937" s="2"/>
+      <c r="F937" s="2"/>
     </row>
     <row r="938">
       <c r="A938" s="3"/>
-      <c r="E938" s="2"/>
+      <c r="F938" s="2"/>
     </row>
     <row r="939">
       <c r="A939" s="3"/>
-      <c r="E939" s="2"/>
+      <c r="F939" s="2"/>
     </row>
     <row r="940">
       <c r="A940" s="3"/>
-      <c r="E940" s="2"/>
+      <c r="F940" s="2"/>
     </row>
     <row r="941">
       <c r="A941" s="3"/>
-      <c r="E941" s="2"/>
+      <c r="F941" s="2"/>
     </row>
     <row r="942">
       <c r="A942" s="3"/>
-      <c r="E942" s="2"/>
+      <c r="F942" s="2"/>
     </row>
     <row r="943">
       <c r="A943" s="3"/>
-      <c r="E943" s="2"/>
+      <c r="F943" s="2"/>
     </row>
     <row r="944">
       <c r="A944" s="3"/>
-      <c r="E944" s="2"/>
+      <c r="F944" s="2"/>
     </row>
     <row r="945">
       <c r="A945" s="3"/>
-      <c r="E945" s="2"/>
+      <c r="F945" s="2"/>
     </row>
     <row r="946">
       <c r="A946" s="3"/>
-      <c r="E946" s="2"/>
+      <c r="F946" s="2"/>
     </row>
     <row r="947">
       <c r="A947" s="3"/>
-      <c r="E947" s="2"/>
+      <c r="F947" s="2"/>
     </row>
     <row r="948">
       <c r="A948" s="3"/>
-      <c r="E948" s="2"/>
+      <c r="F948" s="2"/>
     </row>
     <row r="949">
       <c r="A949" s="3"/>
-      <c r="E949" s="2"/>
+      <c r="F949" s="2"/>
     </row>
     <row r="950">
       <c r="A950" s="3"/>
-      <c r="E950" s="2"/>
+      <c r="F950" s="2"/>
     </row>
     <row r="951">
       <c r="A951" s="3"/>
-      <c r="E951" s="2"/>
+      <c r="F951" s="2"/>
     </row>
     <row r="952">
       <c r="A952" s="3"/>
-      <c r="E952" s="2"/>
+      <c r="F952" s="2"/>
     </row>
     <row r="953">
       <c r="A953" s="3"/>
-      <c r="E953" s="2"/>
+      <c r="F953" s="2"/>
     </row>
     <row r="954">
       <c r="A954" s="3"/>
-      <c r="E954" s="2"/>
+      <c r="F954" s="2"/>
     </row>
     <row r="955">
       <c r="A955" s="3"/>
-      <c r="E955" s="2"/>
+      <c r="F955" s="2"/>
     </row>
     <row r="956">
       <c r="A956" s="3"/>
-      <c r="E956" s="2"/>
+      <c r="F956" s="2"/>
     </row>
     <row r="957">
       <c r="A957" s="3"/>
-      <c r="E957" s="2"/>
+      <c r="F957" s="2"/>
     </row>
     <row r="958">
       <c r="A958" s="3"/>
-      <c r="E958" s="2"/>
+      <c r="F958" s="2"/>
     </row>
     <row r="959">
       <c r="A959" s="3"/>
-      <c r="E959" s="2"/>
+      <c r="F959" s="2"/>
     </row>
     <row r="960">
       <c r="A960" s="3"/>
-      <c r="E960" s="2"/>
+      <c r="F960" s="2"/>
     </row>
     <row r="961">
       <c r="A961" s="3"/>
-      <c r="E961" s="2"/>
+      <c r="F961" s="2"/>
     </row>
     <row r="962">
       <c r="A962" s="3"/>
-      <c r="E962" s="2"/>
+      <c r="F962" s="2"/>
     </row>
     <row r="963">
       <c r="A963" s="3"/>
-      <c r="E963" s="2"/>
+      <c r="F963" s="2"/>
     </row>
     <row r="964">
       <c r="A964" s="3"/>
-      <c r="E964" s="2"/>
+      <c r="F964" s="2"/>
     </row>
     <row r="965">
       <c r="A965" s="3"/>
-      <c r="E965" s="2"/>
+      <c r="F965" s="2"/>
     </row>
     <row r="966">
       <c r="A966" s="3"/>
-      <c r="E966" s="2"/>
+      <c r="F966" s="2"/>
     </row>
     <row r="967">
       <c r="A967" s="3"/>
-      <c r="E967" s="2"/>
-    </row>
-    <row r="968">
-      <c r="A968" s="3"/>
-      <c r="E968" s="2"/>
+      <c r="F967" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
